--- a/tests/eindhoven-500/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaalproduct_Auto_OV.xlsx
+++ b/tests/eindhoven-500/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaalproduct_Auto_OV.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2365055.107794034</v>
+        <v>2365055.107794035</v>
       </c>
       <c r="C2">
-        <v>3621324.877130518</v>
+        <v>3621324.87713052</v>
       </c>
       <c r="D2">
-        <v>5937111.676864523</v>
+        <v>5937111.67686452</v>
       </c>
       <c r="E2">
-        <v>7514407.13146163</v>
+        <v>7514407.131461625</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -425,13 +425,13 @@
         <v>176260.538868033</v>
       </c>
       <c r="C4">
-        <v>339886.6281677046</v>
+        <v>339886.6281677049</v>
       </c>
       <c r="D4">
-        <v>711737.9056153073</v>
+        <v>711737.9056153068</v>
       </c>
       <c r="E4">
-        <v>1195834.969391545</v>
+        <v>1195834.969391544</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>246764.7544152462</v>
+        <v>246764.7544152463</v>
       </c>
       <c r="C5">
-        <v>382372.4566886676</v>
+        <v>382372.4566886679</v>
       </c>
       <c r="D5">
-        <v>669870.9699908774</v>
+        <v>669870.969990877</v>
       </c>
       <c r="E5">
-        <v>818202.8737942148</v>
+        <v>818202.8737942141</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -459,13 +459,13 @@
         <v>258515.4570064484</v>
       </c>
       <c r="C6">
-        <v>382372.4566886676</v>
+        <v>382372.4566886679</v>
       </c>
       <c r="D6">
-        <v>669870.9699908774</v>
+        <v>669870.969990877</v>
       </c>
       <c r="E6">
-        <v>755264.1911946598</v>
+        <v>755264.1911946591</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1009952.760623201</v>
+        <v>1009952.760623202</v>
       </c>
       <c r="C7">
         <v>1508087.581725439</v>
       </c>
       <c r="D7">
-        <v>2425403.270069733</v>
+        <v>2425403.270069732</v>
       </c>
       <c r="E7">
-        <v>3143385.396644703</v>
+        <v>3143385.396644701</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -496,10 +496,10 @@
         <v>1432683.202639167</v>
       </c>
       <c r="D8">
-        <v>2562690.24762085</v>
+        <v>2562690.247620849</v>
       </c>
       <c r="E8">
-        <v>3678429.719477843</v>
+        <v>3678429.719477842</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -516,7 +516,7 @@
         <v>2493917.476715824</v>
       </c>
       <c r="E9">
-        <v>3582223.902284829</v>
+        <v>3582223.902284825</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -533,7 +533,7 @@
         <v>2608452.573471222</v>
       </c>
       <c r="E10">
-        <v>4146593.501956841</v>
+        <v>4146593.50195684</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -547,10 +547,10 @@
         <v>1432683.202639167</v>
       </c>
       <c r="D11">
-        <v>2562690.24762085</v>
+        <v>2562690.247620849</v>
       </c>
       <c r="E11">
-        <v>3678429.719477843</v>
+        <v>3678429.719477842</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -561,13 +561,13 @@
         <v>176260.538868033</v>
       </c>
       <c r="C12">
-        <v>339886.6281677046</v>
+        <v>339886.6281677049</v>
       </c>
       <c r="D12">
-        <v>711737.9056153073</v>
+        <v>711737.9056153068</v>
       </c>
       <c r="E12">
-        <v>1195834.969391545</v>
+        <v>1195834.969391544</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,7 +575,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>791394.2279480011</v>
+        <v>791394.227948001</v>
       </c>
       <c r="C13">
         <v>1396582.206918259</v>
@@ -595,13 +595,13 @@
         <v>176260.538868033</v>
       </c>
       <c r="C14">
-        <v>339886.6281677046</v>
+        <v>339886.6281677049</v>
       </c>
       <c r="D14">
-        <v>711737.9056153073</v>
+        <v>711737.9056153068</v>
       </c>
       <c r="E14">
-        <v>1195834.969391545</v>
+        <v>1195834.969391544</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -615,10 +615,10 @@
         <v>1432683.202639167</v>
       </c>
       <c r="D15">
-        <v>2562690.24762085</v>
+        <v>2562690.247620849</v>
       </c>
       <c r="E15">
-        <v>3678429.719477843</v>
+        <v>3678429.719477842</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -629,13 +629,13 @@
         <v>1939053.297860813</v>
       </c>
       <c r="C16">
-        <v>3366050.216748373</v>
+        <v>3366050.21674837</v>
       </c>
       <c r="D16">
-        <v>6079489.639742023</v>
+        <v>6079489.639742021</v>
       </c>
       <c r="E16">
-        <v>8658411.234901911</v>
+        <v>8658411.234901913</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -646,13 +646,13 @@
         <v>176260.538868033</v>
       </c>
       <c r="C17">
-        <v>339886.6281677046</v>
+        <v>339886.6281677049</v>
       </c>
       <c r="D17">
-        <v>711737.9056153073</v>
+        <v>711737.9056153068</v>
       </c>
       <c r="E17">
-        <v>1195834.969391545</v>
+        <v>1195834.969391544</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -660,10 +660,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>867489.826789155</v>
+        <v>867489.8267891549</v>
       </c>
       <c r="C18">
-        <v>1474170.107302606</v>
+        <v>1474170.107302607</v>
       </c>
       <c r="D18">
         <v>2632269.097106358</v>
@@ -680,13 +680,13 @@
         <v>1939053.297860813</v>
       </c>
       <c r="C19">
-        <v>3366050.216748373</v>
+        <v>3366050.21674837</v>
       </c>
       <c r="D19">
-        <v>6079489.639742023</v>
+        <v>6079489.639742021</v>
       </c>
       <c r="E19">
-        <v>8658411.234901911</v>
+        <v>8658411.234901913</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -697,13 +697,13 @@
         <v>1939053.297860813</v>
       </c>
       <c r="C20">
-        <v>3366050.216748373</v>
+        <v>3366050.21674837</v>
       </c>
       <c r="D20">
-        <v>6079489.639742023</v>
+        <v>6079489.639742021</v>
       </c>
       <c r="E20">
-        <v>8658411.234901911</v>
+        <v>8658411.234901913</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -714,13 +714,13 @@
         <v>1939053.297860813</v>
       </c>
       <c r="C21">
-        <v>3366050.216748373</v>
+        <v>3366050.21674837</v>
       </c>
       <c r="D21">
-        <v>6079489.639742023</v>
+        <v>6079489.639742021</v>
       </c>
       <c r="E21">
-        <v>8658411.234901911</v>
+        <v>8658411.234901913</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -728,16 +728,16 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>380555.5440290545</v>
+        <v>380555.5440290544</v>
       </c>
       <c r="C22">
         <v>660403.850020671</v>
       </c>
       <c r="D22">
-        <v>1089512.692395334</v>
+        <v>1089512.692395335</v>
       </c>
       <c r="E22">
-        <v>1417935.913386672</v>
+        <v>1417935.913386671</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -748,13 +748,13 @@
         <v>1994624.789705812</v>
       </c>
       <c r="C23">
-        <v>3473515.69847213</v>
+        <v>3473515.698472131</v>
       </c>
       <c r="D23">
-        <v>6254361.919139727</v>
+        <v>6254361.919139723</v>
       </c>
       <c r="E23">
-        <v>8898640.024099298</v>
+        <v>8898640.024099292</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -768,10 +768,10 @@
         <v>1991227.940337945</v>
       </c>
       <c r="D24">
-        <v>3850350.11340163</v>
+        <v>3850350.113401632</v>
       </c>
       <c r="E24">
-        <v>5055933.650927683</v>
+        <v>5055933.650927681</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -779,16 +779,16 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1391787.648051026</v>
+        <v>1391787.648051025</v>
       </c>
       <c r="C25">
         <v>2117655.111153052</v>
       </c>
       <c r="D25">
-        <v>3642223.080244786</v>
+        <v>3642223.080244787</v>
       </c>
       <c r="E25">
-        <v>3885085.858081272</v>
+        <v>3885085.858081271</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -796,16 +796,16 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1391787.648051026</v>
+        <v>1391787.648051025</v>
       </c>
       <c r="C26">
         <v>2117655.111153052</v>
       </c>
       <c r="D26">
-        <v>3642223.080244786</v>
+        <v>3642223.080244787</v>
       </c>
       <c r="E26">
-        <v>3885085.858081272</v>
+        <v>3885085.858081271</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -813,16 +813,16 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>638007.4888914721</v>
+        <v>638007.4888914722</v>
       </c>
       <c r="C27">
-        <v>1128475.507934379</v>
+        <v>1128475.50793438</v>
       </c>
       <c r="D27">
         <v>2167895.011545999</v>
       </c>
       <c r="E27">
-        <v>3130063.573204189</v>
+        <v>3130063.573204187</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -830,16 +830,16 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>774723.379368216</v>
+        <v>774723.3793682163</v>
       </c>
       <c r="C28">
-        <v>1213643.470797351</v>
+        <v>1213643.470797352</v>
       </c>
       <c r="D28">
         <v>2040371.775572705</v>
       </c>
       <c r="E28">
-        <v>2427396.240444065</v>
+        <v>2427396.240444063</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -847,16 +847,16 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>774723.379368216</v>
+        <v>774723.3793682163</v>
       </c>
       <c r="C29">
-        <v>1213643.470797351</v>
+        <v>1213643.470797352</v>
       </c>
       <c r="D29">
         <v>2040371.775572705</v>
       </c>
       <c r="E29">
-        <v>2427396.240444065</v>
+        <v>2427396.240444063</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -870,10 +870,10 @@
         <v>5918226.521080175</v>
       </c>
       <c r="D30">
-        <v>9759147.921555461</v>
+        <v>9759147.921555456</v>
       </c>
       <c r="E30">
-        <v>13301213.60574976</v>
+        <v>13301213.60574975</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -901,13 +901,13 @@
         <v>2438405.913670343</v>
       </c>
       <c r="C32">
-        <v>4816427.59448019</v>
+        <v>4816427.594480189</v>
       </c>
       <c r="D32">
         <v>10658644.93195342</v>
       </c>
       <c r="E32">
-        <v>19401887.53177188</v>
+        <v>19401887.53177189</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -921,10 +921,10 @@
         <v>5625566.967839947</v>
       </c>
       <c r="D33">
-        <v>9868801.268988669</v>
+        <v>9868801.268988663</v>
       </c>
       <c r="E33">
-        <v>14545771.60394857</v>
+        <v>14545771.60394856</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -935,13 +935,13 @@
         <v>2133757.135820315</v>
       </c>
       <c r="C34">
-        <v>4137542.435122318</v>
+        <v>4137542.43512232</v>
       </c>
       <c r="D34">
-        <v>8134080.641902907</v>
+        <v>8134080.641902903</v>
       </c>
       <c r="E34">
-        <v>13499592.72366504</v>
+        <v>13499592.72366505</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -952,13 +952,13 @@
         <v>11951409.48641619</v>
       </c>
       <c r="C35">
-        <v>20053975.03411893</v>
+        <v>20053975.03411892</v>
       </c>
       <c r="D35">
-        <v>36903495.40934042</v>
+        <v>36903495.40934043</v>
       </c>
       <c r="E35">
-        <v>58360604.45174729</v>
+        <v>58360604.45174731</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -966,16 +966,16 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>2373583.021525457</v>
+        <v>2373583.021525456</v>
       </c>
       <c r="C36">
-        <v>4307127.93467577</v>
+        <v>4307127.934675773</v>
       </c>
       <c r="D36">
-        <v>8047279.611470332</v>
+        <v>8047279.61147033</v>
       </c>
       <c r="E36">
-        <v>12220997.35428138</v>
+        <v>12220997.35428139</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -986,13 +986,13 @@
         <v>2473833.001112606</v>
       </c>
       <c r="C37">
-        <v>3809302.038809117</v>
+        <v>3809302.03880912</v>
       </c>
       <c r="D37">
-        <v>6004910.684559496</v>
+        <v>6004910.684559497</v>
       </c>
       <c r="E37">
-        <v>8023014.928969492</v>
+        <v>8023014.928969491</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1003,10 +1003,10 @@
         <v>1699415.713807791</v>
       </c>
       <c r="C38">
-        <v>3047441.631047294</v>
+        <v>3047441.631047296</v>
       </c>
       <c r="D38">
-        <v>6445638.074251937</v>
+        <v>6445638.074251938</v>
       </c>
       <c r="E38">
         <v>11372428.92844219</v>
@@ -1017,16 +1017,16 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>3435145.137929707</v>
+        <v>3435145.137929706</v>
       </c>
       <c r="C39">
-        <v>4861492.667059246</v>
+        <v>4861492.667059253</v>
       </c>
       <c r="D39">
-        <v>7143964.27009226</v>
+        <v>7143964.270092264</v>
       </c>
       <c r="E39">
-        <v>8722422.309724776</v>
+        <v>8722422.309724772</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1037,13 +1037,13 @@
         <v>15549153.37304869</v>
       </c>
       <c r="C40">
-        <v>22433260.20765846</v>
+        <v>22433260.20765845</v>
       </c>
       <c r="D40">
-        <v>34836413.29415496</v>
+        <v>34836413.29415497</v>
       </c>
       <c r="E40">
-        <v>46236983.18311784</v>
+        <v>46236983.18311785</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1054,13 +1054,13 @@
         <v>18530845.22429892</v>
       </c>
       <c r="C41">
-        <v>23528486.71611317</v>
+        <v>23528486.71611316</v>
       </c>
       <c r="D41">
-        <v>32951720.77736822</v>
+        <v>32951720.77736823</v>
       </c>
       <c r="E41">
-        <v>38461143.3349624</v>
+        <v>38461143.33496241</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1071,10 +1071,10 @@
         <v>1571434.263398733</v>
       </c>
       <c r="C42">
-        <v>3106175.841238125</v>
+        <v>3106175.841238127</v>
       </c>
       <c r="D42">
-        <v>6522759.397773954</v>
+        <v>6522759.397773953</v>
       </c>
       <c r="E42">
         <v>11251929.25596939</v>
@@ -1085,13 +1085,13 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>1853814.711062896</v>
+        <v>1853814.711062897</v>
       </c>
       <c r="C43">
-        <v>3329200.032604233</v>
+        <v>3329200.032604234</v>
       </c>
       <c r="D43">
-        <v>6517312.685535975</v>
+        <v>6517312.685535982</v>
       </c>
       <c r="E43">
         <v>10677265.62726835</v>
@@ -1102,7 +1102,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>5940239.620982384</v>
+        <v>5940239.620982382</v>
       </c>
       <c r="C44">
         <v>8891482.936310394</v>
@@ -1119,16 +1119,16 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>890469.4220671522</v>
+        <v>890469.4220671519</v>
       </c>
       <c r="C45">
-        <v>1587859.307953161</v>
+        <v>1587859.30795316</v>
       </c>
       <c r="D45">
         <v>3115366.906341012</v>
       </c>
       <c r="E45">
-        <v>4848202.895521419</v>
+        <v>4848202.895521418</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1136,13 +1136,13 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>1962858.810662679</v>
+        <v>1962858.810662678</v>
       </c>
       <c r="C46">
-        <v>3473393.939196916</v>
+        <v>3473393.939196917</v>
       </c>
       <c r="D46">
-        <v>6538420.210314562</v>
+        <v>6538420.210314565</v>
       </c>
       <c r="E46">
         <v>10387154.04846369</v>
@@ -1156,10 +1156,10 @@
         <v>3398535.843042224</v>
       </c>
       <c r="C47">
-        <v>4830162.148930846</v>
+        <v>4830162.148930848</v>
       </c>
       <c r="D47">
-        <v>7546501.777771737</v>
+        <v>7546501.777771736</v>
       </c>
       <c r="E47">
         <v>9358313.875680815</v>
@@ -1173,13 +1173,13 @@
         <v>1274000.446234856</v>
       </c>
       <c r="C48">
-        <v>1873654.460336107</v>
+        <v>1873654.460336106</v>
       </c>
       <c r="D48">
-        <v>2933519.950551786</v>
+        <v>2933519.950551785</v>
       </c>
       <c r="E48">
-        <v>3651728.813922077</v>
+        <v>3651728.813922076</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1190,10 +1190,10 @@
         <v>12205600.86908841</v>
       </c>
       <c r="C49">
-        <v>21319652.90457375</v>
+        <v>21319652.90457376</v>
       </c>
       <c r="D49">
-        <v>35619242.79485931</v>
+        <v>35619242.79485933</v>
       </c>
       <c r="E49">
         <v>48908321.20454347</v>
@@ -1204,13 +1204,13 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>4151588.603663835</v>
+        <v>4151588.603663834</v>
       </c>
       <c r="C50">
         <v>6930681.897802637</v>
       </c>
       <c r="D50">
-        <v>13429466.19830053</v>
+        <v>13429466.19830052</v>
       </c>
       <c r="E50">
         <v>22166352.61069711</v>
@@ -1221,16 +1221,16 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>1586027.455529347</v>
+        <v>1586027.455529346</v>
       </c>
       <c r="C51">
-        <v>2733548.216282285</v>
+        <v>2733548.216282286</v>
       </c>
       <c r="D51">
-        <v>4736155.023543018</v>
+        <v>4736155.023543019</v>
       </c>
       <c r="E51">
-        <v>6271696.941171751</v>
+        <v>6271696.941171749</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1241,13 +1241,13 @@
         <v>1419997.084032243</v>
       </c>
       <c r="C52">
-        <v>2600563.203827134</v>
+        <v>2600563.203827132</v>
       </c>
       <c r="D52">
-        <v>4768955.591166757</v>
+        <v>4768955.591166758</v>
       </c>
       <c r="E52">
-        <v>6844032.96237943</v>
+        <v>6844032.962379431</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1255,16 +1255,16 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>1435360.061957446</v>
+        <v>1435360.061957447</v>
       </c>
       <c r="C53">
         <v>2725969.175261304</v>
       </c>
       <c r="D53">
-        <v>5385014.337218191</v>
+        <v>5385014.337218192</v>
       </c>
       <c r="E53">
-        <v>8272489.359735458</v>
+        <v>8272489.359735459</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1275,13 +1275,13 @@
         <v>1203426.105403114</v>
       </c>
       <c r="C54">
-        <v>2298856.768123883</v>
+        <v>2298856.768123881</v>
       </c>
       <c r="D54">
-        <v>4884413.035325041</v>
+        <v>4884413.035325039</v>
       </c>
       <c r="E54">
-        <v>7924547.538016394</v>
+        <v>7924547.53801639</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1289,13 +1289,13 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>6345517.540559357</v>
+        <v>6345517.540559356</v>
       </c>
       <c r="C55">
         <v>8572159.189387472</v>
       </c>
       <c r="D55">
-        <v>12197015.18643118</v>
+        <v>12197015.18643117</v>
       </c>
       <c r="E55">
         <v>14132515.81793122</v>
@@ -1306,16 +1306,16 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>5070311.718165883</v>
+        <v>5070311.718165881</v>
       </c>
       <c r="C56">
-        <v>11070948.09968856</v>
+        <v>11070948.09968855</v>
       </c>
       <c r="D56">
-        <v>21102417.15881746</v>
+        <v>21102417.15881745</v>
       </c>
       <c r="E56">
-        <v>32629569.25881289</v>
+        <v>32629569.25881288</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1323,16 +1323,16 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>4071539.820772885</v>
+        <v>4071539.820772886</v>
       </c>
       <c r="C57">
-        <v>7957834.887527225</v>
+        <v>7957834.887527228</v>
       </c>
       <c r="D57">
-        <v>17392116.91893934</v>
+        <v>17392116.91893933</v>
       </c>
       <c r="E57">
-        <v>29112965.20240016</v>
+        <v>29112965.20240017</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1340,16 +1340,16 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>649315.2102606618</v>
+        <v>649315.210260662</v>
       </c>
       <c r="C58">
         <v>1138103.974963506</v>
       </c>
       <c r="D58">
-        <v>2122119.154254902</v>
+        <v>2122119.154254901</v>
       </c>
       <c r="E58">
-        <v>3122547.222889068</v>
+        <v>3122547.222889066</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1357,16 +1357,16 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>649315.2102606618</v>
+        <v>649315.210260662</v>
       </c>
       <c r="C59">
         <v>1138103.974963506</v>
       </c>
       <c r="D59">
-        <v>2122119.154254902</v>
+        <v>2122119.154254901</v>
       </c>
       <c r="E59">
-        <v>3122547.222889068</v>
+        <v>3122547.222889066</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1374,13 +1374,13 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>1609106.786467537</v>
+        <v>1609106.786467536</v>
       </c>
       <c r="C60">
-        <v>2679970.23166222</v>
+        <v>2679970.231662219</v>
       </c>
       <c r="D60">
-        <v>5161941.539406742</v>
+        <v>5161941.539406746</v>
       </c>
       <c r="E60">
         <v>7063991.512979202</v>
@@ -1397,7 +1397,7 @@
         <v>2806832.727835579</v>
       </c>
       <c r="D61">
-        <v>4927307.833070072</v>
+        <v>4927307.833070075</v>
       </c>
       <c r="E61">
         <v>5895129.607953866</v>
@@ -1408,16 +1408,16 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>282232.5324997389</v>
+        <v>282232.5324997388</v>
       </c>
       <c r="C62">
-        <v>597608.1344678111</v>
+        <v>597608.134467811</v>
       </c>
       <c r="D62">
-        <v>1628215.19384924</v>
+        <v>1628215.193849241</v>
       </c>
       <c r="E62">
-        <v>2633484.676234059</v>
+        <v>2633484.676234058</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1425,10 +1425,10 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>348086.7900830113</v>
+        <v>348086.7900830112</v>
       </c>
       <c r="C63">
-        <v>659429.6656196536</v>
+        <v>659429.6656196535</v>
       </c>
       <c r="D63">
         <v>1513954.478491399</v>
@@ -1442,16 +1442,16 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>368662.3673733706</v>
+        <v>368662.3673733707</v>
       </c>
       <c r="C64">
         <v>755836.2312283408</v>
       </c>
       <c r="D64">
-        <v>1921769.519969001</v>
+        <v>1921769.519969</v>
       </c>
       <c r="E64">
-        <v>2508771.898907395</v>
+        <v>2508771.898907392</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1465,10 +1465,10 @@
         <v>738460.6856828616</v>
       </c>
       <c r="D65">
-        <v>1948095.12983159</v>
+        <v>1948095.129831589</v>
       </c>
       <c r="E65">
-        <v>2772853.151423962</v>
+        <v>2772853.15142396</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1482,10 +1482,10 @@
         <v>2189129.146356131</v>
       </c>
       <c r="D66">
-        <v>4132009.378040129</v>
+        <v>4132009.378040131</v>
       </c>
       <c r="E66">
-        <v>6217529.147353449</v>
+        <v>6217529.147353452</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1493,13 +1493,13 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>826589.3149638167</v>
+        <v>826589.3149638168</v>
       </c>
       <c r="C67">
         <v>1765640.28752036</v>
       </c>
       <c r="D67">
-        <v>4542245.557416573</v>
+        <v>4542245.557416576</v>
       </c>
       <c r="E67">
         <v>9036841.462743841</v>
@@ -1510,16 +1510,16 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>1015915.894213992</v>
+        <v>1015915.894213993</v>
       </c>
       <c r="C68">
         <v>1899003.596839054</v>
       </c>
       <c r="D68">
-        <v>4279581.141541562</v>
+        <v>4279581.141541564</v>
       </c>
       <c r="E68">
-        <v>7753624.583758419</v>
+        <v>7753624.583758422</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1530,10 +1530,10 @@
         <v>1190288.613547896</v>
       </c>
       <c r="C69">
-        <v>2091604.648293349</v>
+        <v>2091604.64829335</v>
       </c>
       <c r="D69">
-        <v>4289898.582004541</v>
+        <v>4289898.582004544</v>
       </c>
       <c r="E69">
         <v>7169725.4580447</v>
@@ -1544,13 +1544,13 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>942311.819058751</v>
+        <v>942311.8190587512</v>
       </c>
       <c r="C70">
         <v>1928622.467906855</v>
       </c>
       <c r="D70">
-        <v>4491776.162334166</v>
+        <v>4491776.162334169</v>
       </c>
       <c r="E70">
         <v>8140625.780488254</v>
@@ -1561,16 +1561,16 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>5027771.629401681</v>
+        <v>5027771.62940168</v>
       </c>
       <c r="C71">
-        <v>7436778.509341937</v>
+        <v>7436778.509341936</v>
       </c>
       <c r="D71">
         <v>12616889.88827587</v>
       </c>
       <c r="E71">
-        <v>17218240.93756498</v>
+        <v>17218240.93756499</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1578,13 +1578,13 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>1454797.194336317</v>
+        <v>1454797.194336318</v>
       </c>
       <c r="C72">
-        <v>2336077.918873091</v>
+        <v>2336077.918873092</v>
       </c>
       <c r="D72">
-        <v>4138490.396757322</v>
+        <v>4138490.396757325</v>
       </c>
       <c r="E72">
         <v>5750717.294473354</v>
@@ -1601,7 +1601,7 @@
         <v>2308914.222142009</v>
       </c>
       <c r="D73">
-        <v>4088021.001674916</v>
+        <v>4088021.001674918</v>
       </c>
       <c r="E73">
         <v>5601348.014097422</v>
@@ -1618,7 +1618,7 @@
         <v>2471896.402528504</v>
       </c>
       <c r="D74">
-        <v>4037551.606592509</v>
+        <v>4037551.606592512</v>
       </c>
       <c r="E74">
         <v>5003870.892593698</v>
@@ -1632,13 +1632,13 @@
         <v>1545354.724051094</v>
       </c>
       <c r="C75">
-        <v>2396190.798223529</v>
+        <v>2396190.798223528</v>
       </c>
       <c r="D75">
         <v>4093373.962042945</v>
       </c>
       <c r="E75">
-        <v>4666887.800746401</v>
+        <v>4666887.800746405</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1652,7 +1652,7 @@
         <v>2254586.828679844</v>
       </c>
       <c r="D76">
-        <v>4239429.186922135</v>
+        <v>4239429.186922138</v>
       </c>
       <c r="E76">
         <v>6348194.415977078</v>
@@ -1663,13 +1663,13 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>2995838.074427547</v>
+        <v>2995838.074427546</v>
       </c>
       <c r="C77">
-        <v>4865444.745669729</v>
+        <v>4865444.745669728</v>
       </c>
       <c r="D77">
-        <v>8991528.486397261</v>
+        <v>8991528.486397266</v>
       </c>
       <c r="E77">
         <v>13089190.97877029</v>
@@ -1680,13 +1680,13 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>1992077.894851307</v>
+        <v>1992077.894851306</v>
       </c>
       <c r="C78">
         <v>4606644.493240488</v>
       </c>
       <c r="D78">
-        <v>9880800.534502486</v>
+        <v>9880800.534502491</v>
       </c>
       <c r="E78">
         <v>16269050.93406477</v>
@@ -1697,13 +1697,13 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>3706191.432281501</v>
+        <v>3706191.4322815</v>
       </c>
       <c r="C79">
-        <v>5150125.023341894</v>
+        <v>5150125.023341893</v>
       </c>
       <c r="D79">
-        <v>8398680.454327112</v>
+        <v>8398680.454327118</v>
       </c>
       <c r="E79">
         <v>10426982.64410515</v>
@@ -1714,16 +1714,16 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>3489996.93206508</v>
+        <v>3489996.932065079</v>
       </c>
       <c r="C80">
         <v>5020724.897127273</v>
       </c>
       <c r="D80">
-        <v>8596296.465017162</v>
+        <v>8596296.465017168</v>
       </c>
       <c r="E80">
-        <v>11240435.19080838</v>
+        <v>11240435.19080839</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1731,7 +1731,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>735767.4751921755</v>
+        <v>735767.4751921751</v>
       </c>
       <c r="C81">
         <v>1112132.607012373</v>
@@ -1740,7 +1740,7 @@
         <v>1906231.475640167</v>
       </c>
       <c r="E81">
-        <v>2744000.496283352</v>
+        <v>2744000.496283353</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1748,7 +1748,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>822328.3546265489</v>
+        <v>822328.3546265487</v>
       </c>
       <c r="C82">
         <v>1246936.559377509</v>
@@ -1757,7 +1757,7 @@
         <v>1850165.844003691</v>
       </c>
       <c r="E82">
-        <v>2195200.397026681</v>
+        <v>2195200.397026683</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1768,10 +1768,10 @@
         <v>1434273.748962899</v>
       </c>
       <c r="C83">
-        <v>3169815.693683334</v>
+        <v>3169815.693683332</v>
       </c>
       <c r="D83">
-        <v>7443806.464728887</v>
+        <v>7443806.464728884</v>
       </c>
       <c r="E83">
         <v>12901556.51607047</v>
@@ -1782,16 +1782,16 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>2461981.710818205</v>
+        <v>2461981.710818204</v>
       </c>
       <c r="C84">
-        <v>3862556.871773069</v>
+        <v>3862556.871773067</v>
       </c>
       <c r="D84">
-        <v>6497195.238000358</v>
+        <v>6497195.238000356</v>
       </c>
       <c r="E84">
-        <v>7438142.277122259</v>
+        <v>7438142.277122263</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1805,7 +1805,7 @@
         <v>2335909.010892317</v>
       </c>
       <c r="D85">
-        <v>3873624.111019005</v>
+        <v>3873624.111019003</v>
       </c>
       <c r="E85">
         <v>4791948.117363454</v>
@@ -1822,7 +1822,7 @@
         <v>2423505.598800779</v>
       </c>
       <c r="D86">
-        <v>3820560.767032443</v>
+        <v>3820560.767032441</v>
       </c>
       <c r="E86">
         <v>4487697.443245139</v>
@@ -1836,13 +1836,13 @@
         <v>434757.6185794086</v>
       </c>
       <c r="C87">
-        <v>834687.2900709821</v>
+        <v>834687.2900709825</v>
       </c>
       <c r="D87">
-        <v>1503746.808717826</v>
+        <v>1503746.808717827</v>
       </c>
       <c r="E87">
-        <v>2238004.277565468</v>
+        <v>2238004.277565467</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1850,16 +1850,16 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>404774.3345394493</v>
+        <v>404774.3345394494</v>
       </c>
       <c r="C88">
-        <v>805904.9697237068</v>
+        <v>805904.9697237073</v>
       </c>
       <c r="D88">
-        <v>1557452.05188632</v>
+        <v>1557452.051886321</v>
       </c>
       <c r="E88">
-        <v>2392349.40015619</v>
+        <v>2392349.400156189</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1870,13 +1870,13 @@
         <v>464740.9026193678</v>
       </c>
       <c r="C89">
-        <v>863469.6104182573</v>
+        <v>863469.6104182579</v>
       </c>
       <c r="D89">
-        <v>1503746.808717826</v>
+        <v>1503746.808717827</v>
       </c>
       <c r="E89">
-        <v>2006486.593679385</v>
+        <v>2006486.593679384</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1890,7 +1890,7 @@
         <v>188417679.2221313</v>
       </c>
       <c r="D90">
-        <v>237938092.1861974</v>
+        <v>237938092.1861975</v>
       </c>
       <c r="E90">
         <v>285760910.861912</v>
@@ -1907,10 +1907,10 @@
         <v>48315369.74521297</v>
       </c>
       <c r="D91">
-        <v>66033633.40151145</v>
+        <v>66033633.40151148</v>
       </c>
       <c r="E91">
-        <v>85718863.94310236</v>
+        <v>85718863.94310234</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -1924,10 +1924,10 @@
         <v>45617557.2213686</v>
       </c>
       <c r="D92">
-        <v>68436265.60274015</v>
+        <v>68436265.60274018</v>
       </c>
       <c r="E92">
-        <v>97574601.43687941</v>
+        <v>97574601.4368794</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -1941,7 +1941,7 @@
         <v>86881826.0519883</v>
       </c>
       <c r="D93">
-        <v>128269557.8397904</v>
+        <v>128269557.8397905</v>
       </c>
       <c r="E93">
         <v>181787974.9045815</v>
@@ -1952,16 +1952,16 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>38741100.00881916</v>
+        <v>38741100.00881915</v>
       </c>
       <c r="C94">
-        <v>68206496.54969536</v>
+        <v>68206496.54969534</v>
       </c>
       <c r="D94">
         <v>141527651.3276744</v>
       </c>
       <c r="E94">
-        <v>253470497.2068864</v>
+        <v>253470497.2068863</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -1975,10 +1975,10 @@
         <v>25261335.45054283</v>
       </c>
       <c r="D95">
-        <v>34954423.31464984</v>
+        <v>34954423.31464986</v>
       </c>
       <c r="E95">
-        <v>46199738.96384551</v>
+        <v>46199738.9638455</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -1992,7 +1992,7 @@
         <v>8154751.492529601</v>
       </c>
       <c r="D96">
-        <v>12478186.5934781</v>
+        <v>12478186.59347811</v>
       </c>
       <c r="E96">
         <v>18065885.70480313</v>
@@ -2009,10 +2009,10 @@
         <v>8583948.939504843</v>
       </c>
       <c r="D97">
-        <v>12633195.12258963</v>
+        <v>12633195.12258964</v>
       </c>
       <c r="E97">
-        <v>17877699.3953781</v>
+        <v>17877699.39537809</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2026,10 +2026,10 @@
         <v>10535205.75190795</v>
       </c>
       <c r="D98">
-        <v>16986164.60771518</v>
+        <v>16986164.60771517</v>
       </c>
       <c r="E98">
-        <v>25415681.23614768</v>
+        <v>25415681.2361477</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2040,13 +2040,13 @@
         <v>3315301.828407796</v>
       </c>
       <c r="C99">
-        <v>4320618.089265622</v>
+        <v>4320618.089265621</v>
       </c>
       <c r="D99">
-        <v>5945157.612700311</v>
+        <v>5945157.61270031</v>
       </c>
       <c r="E99">
-        <v>7530572.21811783</v>
+        <v>7530572.218117836</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2054,13 +2054,13 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>8390327.412180662</v>
+        <v>8390327.41218066</v>
       </c>
       <c r="C100">
         <v>10800648.71017566</v>
       </c>
       <c r="D100">
-        <v>14602301.84666033</v>
+        <v>14602301.84666035</v>
       </c>
       <c r="E100">
         <v>18697193.80969446</v>
@@ -2071,13 +2071,13 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>3986564.405787497</v>
+        <v>3986564.405787496</v>
       </c>
       <c r="C101">
         <v>5775747.973355966</v>
       </c>
       <c r="D101">
-        <v>8700853.431947866</v>
+        <v>8700853.431947876</v>
       </c>
       <c r="E101">
         <v>12278754.14367994</v>
@@ -2088,13 +2088,13 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>834397.2012113365</v>
+        <v>834397.2012113364</v>
       </c>
       <c r="C102">
         <v>1039634.635204074</v>
       </c>
       <c r="D102">
-        <v>1361872.711087492</v>
+        <v>1361872.711087493</v>
       </c>
       <c r="E102">
         <v>1674375.565047265</v>
@@ -2105,16 +2105,16 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>4206907.92600435</v>
+        <v>4206907.926004351</v>
       </c>
       <c r="C103">
         <v>5712343.674804833</v>
       </c>
       <c r="D103">
-        <v>7918334.484997543</v>
+        <v>7918334.484997546</v>
       </c>
       <c r="E103">
-        <v>9850245.954265958</v>
+        <v>9850245.954265961</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2128,10 +2128,10 @@
         <v>14112849.07892959</v>
       </c>
       <c r="D104">
-        <v>20512256.95161268</v>
+        <v>20512256.95161269</v>
       </c>
       <c r="E104">
-        <v>27320493.49579426</v>
+        <v>27320493.49579427</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2139,16 +2139,16 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>1054511.401500374</v>
+        <v>1054511.401500373</v>
       </c>
       <c r="C105">
         <v>1852867.741669825</v>
       </c>
       <c r="D105">
-        <v>2870943.777800271</v>
+        <v>2870943.777800273</v>
       </c>
       <c r="E105">
-        <v>3917342.28884997</v>
+        <v>3917342.288849971</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2156,7 +2156,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>1118537.412949123</v>
+        <v>1118537.412949124</v>
       </c>
       <c r="C106">
         <v>1806662.299516425</v>
@@ -2165,7 +2165,7 @@
         <v>2959399.939637585</v>
       </c>
       <c r="E106">
-        <v>4173663.542536418</v>
+        <v>4173663.54253642</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2179,7 +2179,7 @@
         <v>7867722.917248949</v>
       </c>
       <c r="D107">
-        <v>13862452.34882869</v>
+        <v>13862452.34882868</v>
       </c>
       <c r="E107">
         <v>22006589.5879193</v>
@@ -2196,10 +2196,10 @@
         <v>14298255.29629259</v>
       </c>
       <c r="D108">
-        <v>20582927.19168935</v>
+        <v>20582927.19168934</v>
       </c>
       <c r="E108">
-        <v>27118810.69241714</v>
+        <v>27118810.69241715</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2210,13 +2210,13 @@
         <v>1481919.038615573</v>
       </c>
       <c r="C109">
-        <v>2374120.38146717</v>
+        <v>2374120.381467171</v>
       </c>
       <c r="D109">
-        <v>3887416.974629894</v>
+        <v>3887416.974629892</v>
       </c>
       <c r="E109">
-        <v>5823918.407725774</v>
+        <v>5823918.40772578</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2224,16 +2224,16 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>75577870.96939422</v>
+        <v>75577870.96939421</v>
       </c>
       <c r="C110">
-        <v>79947123.54335956</v>
+        <v>79947123.54335961</v>
       </c>
       <c r="D110">
-        <v>93148491.35363169</v>
+        <v>93148491.35363163</v>
       </c>
       <c r="E110">
-        <v>93367580.82227035</v>
+        <v>93367580.82227044</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2244,13 +2244,13 @@
         <v>12956206.45189615</v>
       </c>
       <c r="C111">
-        <v>17888721.01384565</v>
+        <v>17888721.01384566</v>
       </c>
       <c r="D111">
-        <v>26838128.72869484</v>
+        <v>26838128.72869483</v>
       </c>
       <c r="E111">
-        <v>38086577.52353998</v>
+        <v>38086577.52354002</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2258,16 +2258,16 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>2650624.002017256</v>
+        <v>2650624.002017257</v>
       </c>
       <c r="C112">
-        <v>4216309.645701895</v>
+        <v>4216309.645701894</v>
       </c>
       <c r="D112">
         <v>7309216.661887879</v>
       </c>
       <c r="E112">
-        <v>11391869.11417589</v>
+        <v>11391869.1141759</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2284,7 +2284,7 @@
         <v>2066094.403313457</v>
       </c>
       <c r="E113">
-        <v>2388716.612699829</v>
+        <v>2388716.612699827</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2292,16 +2292,16 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>2074188.874861804</v>
+        <v>2074188.874861802</v>
       </c>
       <c r="C114">
-        <v>3343920.131271986</v>
+        <v>3343920.131271985</v>
       </c>
       <c r="D114">
         <v>6232530.645005649</v>
       </c>
       <c r="E114">
-        <v>9756685.833741758</v>
+        <v>9756685.83374176</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2309,16 +2309,16 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>5698841.604337101</v>
+        <v>5698841.604337102</v>
       </c>
       <c r="C115">
-        <v>7919824.87503464</v>
+        <v>7919824.875034639</v>
       </c>
       <c r="D115">
         <v>11344513.36063848</v>
       </c>
       <c r="E115">
-        <v>15033532.19165835</v>
+        <v>15033532.19165836</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2326,10 +2326,10 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>4285175.469927898</v>
+        <v>4285175.469927899</v>
       </c>
       <c r="C116">
-        <v>6096555.839055442</v>
+        <v>6096555.839055441</v>
       </c>
       <c r="D116">
         <v>9136520.827359848</v>
@@ -2352,7 +2352,7 @@
         <v>1623359.888317716</v>
       </c>
       <c r="E117">
-        <v>2296842.896826759</v>
+        <v>2296842.896826757</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2366,7 +2366,7 @@
         <v>615841.0553804644</v>
       </c>
       <c r="D118">
-        <v>840009.3512502896</v>
+        <v>840009.3512502895</v>
       </c>
       <c r="E118">
         <v>1126912.949945573</v>
@@ -2377,16 +2377,16 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>224570.7180452202</v>
+        <v>224570.7180452203</v>
       </c>
       <c r="C119">
-        <v>304476.7437792207</v>
+        <v>304476.7437792205</v>
       </c>
       <c r="D119">
-        <v>429653.4010877868</v>
+        <v>429653.4010877867</v>
       </c>
       <c r="E119">
-        <v>542654.8649655901</v>
+        <v>542654.8649655902</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2394,10 +2394,10 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>17049821.44333777</v>
+        <v>17049821.44333778</v>
       </c>
       <c r="C120">
-        <v>27417790.87535763</v>
+        <v>27417790.87535762</v>
       </c>
       <c r="D120">
         <v>42142281.94581974</v>
@@ -2411,10 +2411,10 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>20158352.4247198</v>
+        <v>20158352.42471981</v>
       </c>
       <c r="C121">
-        <v>22828546.90909605</v>
+        <v>22828546.90909604</v>
       </c>
       <c r="D121">
         <v>26769144.61168223</v>
@@ -2428,7 +2428,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>13353283.05643053</v>
+        <v>13353283.05643052</v>
       </c>
       <c r="C122">
         <v>17273069.65920879</v>
@@ -2437,7 +2437,7 @@
         <v>23901328.16004217</v>
       </c>
       <c r="E122">
-        <v>30553085.19297858</v>
+        <v>30553085.19297857</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2445,10 +2445,10 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>5478269.971868934</v>
+        <v>5478269.971868933</v>
       </c>
       <c r="C123">
-        <v>7825986.253363206</v>
+        <v>7825986.253363207</v>
       </c>
       <c r="D123">
         <v>11238869.04077218</v>
@@ -2471,7 +2471,7 @@
         <v>4945102.377939759</v>
       </c>
       <c r="E124">
-        <v>5630628.993267955</v>
+        <v>5630628.993267953</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2479,16 +2479,16 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>6303980.099856664</v>
+        <v>6303980.099856665</v>
       </c>
       <c r="C125">
-        <v>8325307.99307621</v>
+        <v>8325307.993076211</v>
       </c>
       <c r="D125">
         <v>11946080.01099719</v>
       </c>
       <c r="E125">
-        <v>15645992.94139117</v>
+        <v>15645992.94139116</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2496,13 +2496,13 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>6001799.667842732</v>
+        <v>6001799.667842731</v>
       </c>
       <c r="C126">
-        <v>7554576.931663208</v>
+        <v>7554576.931663201</v>
       </c>
       <c r="D126">
-        <v>8909320.004657971</v>
+        <v>8909320.004657969</v>
       </c>
       <c r="E126">
         <v>9071445.638682438</v>
@@ -2513,13 +2513,13 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>8650771.891367845</v>
+        <v>8650771.891367838</v>
       </c>
       <c r="C127">
-        <v>12702446.80730363</v>
+        <v>12702446.80730364</v>
       </c>
       <c r="D127">
-        <v>18661059.47655444</v>
+        <v>18661059.47655445</v>
       </c>
       <c r="E127">
         <v>25263563.06832713</v>
@@ -2530,16 +2530,16 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>1638911.53184756</v>
+        <v>1638911.531847559</v>
       </c>
       <c r="C128">
-        <v>2336727.653936758</v>
+        <v>2336727.65393676</v>
       </c>
       <c r="D128">
-        <v>3361340.702202704</v>
+        <v>3361340.702202702</v>
       </c>
       <c r="E128">
-        <v>4480797.461743598</v>
+        <v>4480797.461743597</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2550,10 +2550,10 @@
         <v>10607399.63668004</v>
       </c>
       <c r="C129">
-        <v>14078784.11496897</v>
+        <v>14078784.11496898</v>
       </c>
       <c r="D129">
-        <v>19098526.71706082</v>
+        <v>19098526.71706081</v>
       </c>
       <c r="E129">
         <v>24270986.25111115</v>
@@ -2564,16 +2564,16 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>3137930.740473184</v>
+        <v>3137930.740473185</v>
       </c>
       <c r="C130">
         <v>5095245.769851693</v>
       </c>
       <c r="D130">
-        <v>8232881.552039345</v>
+        <v>8232881.552039348</v>
       </c>
       <c r="E130">
-        <v>12423149.18780738</v>
+        <v>12423149.18780739</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2584,13 +2584,13 @@
         <v>10079413.89364114</v>
       </c>
       <c r="C131">
-        <v>11947472.83965224</v>
+        <v>11947472.83965225</v>
       </c>
       <c r="D131">
         <v>14199832.40168254</v>
       </c>
       <c r="E131">
-        <v>15760711.65617354</v>
+        <v>15760711.65617355</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2598,16 +2598,16 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>21822881.96783623</v>
+        <v>21822881.96783624</v>
       </c>
       <c r="C132">
         <v>30395776.48911527</v>
       </c>
       <c r="D132">
-        <v>41088876.73678352</v>
+        <v>41088876.73678353</v>
       </c>
       <c r="E132">
-        <v>52566608.87676705</v>
+        <v>52566608.87676708</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2621,10 +2621,10 @@
         <v>13118793.70628482</v>
       </c>
       <c r="D133">
-        <v>16843418.22114471</v>
+        <v>16843418.22114472</v>
       </c>
       <c r="E133">
-        <v>20303505.01589415</v>
+        <v>20303505.01589416</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2632,7 +2632,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>7076039.413682909</v>
+        <v>7076039.413682908</v>
       </c>
       <c r="C134">
         <v>13925448.50545358</v>
@@ -2652,7 +2652,7 @@
         <v>10958527.53767816</v>
       </c>
       <c r="C135">
-        <v>12984503.15243734</v>
+        <v>12984503.15243735</v>
       </c>
       <c r="D135">
         <v>17428243.50354974</v>
@@ -2669,13 +2669,13 @@
         <v>13102499.07914967</v>
       </c>
       <c r="C136">
-        <v>20531110.50130722</v>
+        <v>20531110.50130723</v>
       </c>
       <c r="D136">
-        <v>32998740.21203824</v>
+        <v>32998740.21203825</v>
       </c>
       <c r="E136">
-        <v>49387675.73090551</v>
+        <v>49387675.7309055</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2686,10 +2686,10 @@
         <v>3466984.292421046</v>
       </c>
       <c r="C137">
-        <v>4655962.21750956</v>
+        <v>4655962.217509562</v>
       </c>
       <c r="D137">
-        <v>6408237.496534212</v>
+        <v>6408237.496534213</v>
       </c>
       <c r="E137">
         <v>8414196.606006123</v>
@@ -2720,13 +2720,13 @@
         <v>45023619.36995271</v>
       </c>
       <c r="C139">
-        <v>73584786.25956571</v>
+        <v>73584786.25956577</v>
       </c>
       <c r="D139">
         <v>106384873.9492394</v>
       </c>
       <c r="E139">
-        <v>142518812.3504444</v>
+        <v>142518812.3504445</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2737,13 +2737,13 @@
         <v>12586145.45704461</v>
       </c>
       <c r="C140">
-        <v>22958970.33664042</v>
+        <v>22958970.33664043</v>
       </c>
       <c r="D140">
-        <v>35491408.24862958</v>
+        <v>35491408.24862959</v>
       </c>
       <c r="E140">
-        <v>49255632.01198086</v>
+        <v>49255632.01198085</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2754,13 +2754,13 @@
         <v>15933535.67187406</v>
       </c>
       <c r="C141">
-        <v>24999596.86912225</v>
+        <v>24999596.86912227</v>
       </c>
       <c r="D141">
         <v>36373424.58862112</v>
       </c>
       <c r="E141">
-        <v>49456496.13957051</v>
+        <v>49456496.13957053</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2771,13 +2771,13 @@
         <v>2549365.70749985</v>
       </c>
       <c r="C142">
-        <v>3959212.17384289</v>
+        <v>3959212.173842893</v>
       </c>
       <c r="D142">
-        <v>6875464.403946674</v>
+        <v>6875464.403946675</v>
       </c>
       <c r="E142">
-        <v>10970017.62800085</v>
+        <v>10970017.62800086</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2785,7 +2785,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>11814659.40980528</v>
+        <v>11814659.40980527</v>
       </c>
       <c r="C143">
         <v>20906297.47280242</v>
@@ -2794,7 +2794,7 @@
         <v>36006514.39460498</v>
       </c>
       <c r="E143">
-        <v>56184776.6088385</v>
+        <v>56184776.60883849</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2805,7 +2805,7 @@
         <v>4424966.071088118</v>
       </c>
       <c r="C144">
-        <v>6762144.735138248</v>
+        <v>6762144.73513825</v>
       </c>
       <c r="D144">
         <v>11705821.55215553</v>
@@ -2819,10 +2819,10 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>5442708.267438386</v>
+        <v>5442708.267438385</v>
       </c>
       <c r="C145">
-        <v>10199568.30883352</v>
+        <v>10199568.30883353</v>
       </c>
       <c r="D145">
         <v>22300330.93163807</v>
@@ -2836,16 +2836,16 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>8831912.143845184</v>
+        <v>8831912.143845182</v>
       </c>
       <c r="C146">
-        <v>15656075.28137628</v>
+        <v>15656075.28137629</v>
       </c>
       <c r="D146">
-        <v>23071020.27420947</v>
+        <v>23071020.27420946</v>
       </c>
       <c r="E146">
-        <v>30992182.44372655</v>
+        <v>30992182.44372654</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2853,13 +2853,13 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>7980866.490359326</v>
+        <v>7980866.490359323</v>
       </c>
       <c r="C147">
         <v>12035295.44585591</v>
       </c>
       <c r="D147">
-        <v>20980130.66642477</v>
+        <v>20980130.66642479</v>
       </c>
       <c r="E147">
         <v>34036958.93024065</v>
@@ -2870,16 +2870,16 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>6898154.299444597</v>
+        <v>6898154.299444598</v>
       </c>
       <c r="C148">
-        <v>9699117.203426797</v>
+        <v>9699117.203426793</v>
       </c>
       <c r="D148">
         <v>13921831.75831033</v>
       </c>
       <c r="E148">
-        <v>18845330.52223451</v>
+        <v>18845330.52223452</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2890,13 +2890,13 @@
         <v>4583654.527097548</v>
       </c>
       <c r="C149">
-        <v>5599643.926329925</v>
+        <v>5599643.926329924</v>
       </c>
       <c r="D149">
         <v>7480292.992565995</v>
       </c>
       <c r="E149">
-        <v>9680219.480068745</v>
+        <v>9680219.480068741</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -2907,13 +2907,13 @@
         <v>2455529.210945115</v>
       </c>
       <c r="C150">
-        <v>3257974.648046502</v>
+        <v>3257974.648046501</v>
       </c>
       <c r="D150">
         <v>4556178.459108379</v>
       </c>
       <c r="E150">
-        <v>6136567.706115008</v>
+        <v>6136567.706115006</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -2924,13 +2924,13 @@
         <v>19316829.79276824</v>
       </c>
       <c r="C151">
-        <v>22704010.82857406</v>
+        <v>22704010.82857405</v>
       </c>
       <c r="D151">
         <v>26113022.8104122</v>
       </c>
       <c r="E151">
-        <v>26620603.57018905</v>
+        <v>26620603.57018904</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -2941,13 +2941,13 @@
         <v>4911058.421890231</v>
       </c>
       <c r="C152">
-        <v>6872290.27322309</v>
+        <v>6872290.273223088</v>
       </c>
       <c r="D152">
         <v>9724380.890335795</v>
       </c>
       <c r="E152">
-        <v>13051010.1918784</v>
+        <v>13051010.19187839</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -2958,13 +2958,13 @@
         <v>29610025.2869225</v>
       </c>
       <c r="C153">
-        <v>36564873.74408095</v>
+        <v>36564873.74408097</v>
       </c>
       <c r="D153">
-        <v>48664407.84035975</v>
+        <v>48664407.8403597</v>
       </c>
       <c r="E153">
-        <v>58852221.81993286</v>
+        <v>58852221.81993285</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -2972,13 +2972,13 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>5936754.758648221</v>
+        <v>5936754.758648222</v>
       </c>
       <c r="C154">
-        <v>8632025.897143779</v>
+        <v>8632025.897143783</v>
       </c>
       <c r="D154">
-        <v>12881755.01656582</v>
+        <v>12881755.01656581</v>
       </c>
       <c r="E154">
         <v>17567827.40893518</v>
@@ -2992,13 +2992,13 @@
         <v>13868899.43136331</v>
       </c>
       <c r="C155">
-        <v>18055936.79794156</v>
+        <v>18055936.79794155</v>
       </c>
       <c r="D155">
-        <v>25704785.88392434</v>
+        <v>25704785.88392432</v>
       </c>
       <c r="E155">
-        <v>33503646.09644295</v>
+        <v>33503646.09644293</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3009,13 +3009,13 @@
         <v>4612215.392290588</v>
       </c>
       <c r="C156">
-        <v>6668139.728736212</v>
+        <v>6668139.728736209</v>
       </c>
       <c r="D156">
-        <v>9982441.119970616</v>
+        <v>9982441.119970612</v>
       </c>
       <c r="E156">
-        <v>13698535.10347175</v>
+        <v>13698535.10347174</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3026,10 +3026,10 @@
         <v>4755408.556170338</v>
       </c>
       <c r="C157">
-        <v>6537595.886559909</v>
+        <v>6537595.886559907</v>
       </c>
       <c r="D157">
-        <v>9660079.494773459</v>
+        <v>9660079.494773457</v>
       </c>
       <c r="E157">
         <v>13228882.96508929</v>
@@ -3049,7 +3049,7 @@
         <v>28260223.43514497</v>
       </c>
       <c r="E158">
-        <v>36296615.63321185</v>
+        <v>36296615.63321186</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3060,13 +3060,13 @@
         <v>13782243.51215237</v>
       </c>
       <c r="C159">
-        <v>19321275.91287132</v>
+        <v>19321275.91287133</v>
       </c>
       <c r="D159">
         <v>30478633.15883935</v>
       </c>
       <c r="E159">
-        <v>46083730.32760186</v>
+        <v>46083730.32760184</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3080,10 +3080,10 @@
         <v>3220735.269989634</v>
       </c>
       <c r="D160">
-        <v>5066427.278453985</v>
+        <v>5066427.278453982</v>
       </c>
       <c r="E160">
-        <v>7418016.233239072</v>
+        <v>7418016.233239075</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3100,7 +3100,7 @@
         <v>24529563.53868722</v>
       </c>
       <c r="E161">
-        <v>35491415.939934</v>
+        <v>35491415.93993399</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3108,13 +3108,13 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>6230623.274941708</v>
+        <v>6230623.27494171</v>
       </c>
       <c r="C162">
-        <v>11553359.57901743</v>
+        <v>11553359.57901742</v>
       </c>
       <c r="D162">
-        <v>21061406.59729647</v>
+        <v>21061406.59729645</v>
       </c>
       <c r="E162">
         <v>34512252.7978576</v>
@@ -3125,7 +3125,7 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>8021677.652514577</v>
+        <v>8021677.652514579</v>
       </c>
       <c r="C163">
         <v>11024904.03956337</v>
@@ -3145,13 +3145,13 @@
         <v>1026552.227987324</v>
       </c>
       <c r="C164">
-        <v>1825860.785520042</v>
+        <v>1825860.785520041</v>
       </c>
       <c r="D164">
-        <v>3150544.27226034</v>
+        <v>3150544.272260339</v>
       </c>
       <c r="E164">
-        <v>4951511.084066819</v>
+        <v>4951511.084066816</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3159,16 +3159,16 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>8215902.97710384</v>
+        <v>8215902.977103843</v>
       </c>
       <c r="C165">
         <v>10895410.98698541</v>
       </c>
       <c r="D165">
-        <v>15069054.54848965</v>
+        <v>15069054.54848966</v>
       </c>
       <c r="E165">
-        <v>19090636.10968519</v>
+        <v>19090636.10968518</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3176,16 +3176,16 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>3098980.94750408</v>
+        <v>3098980.947504081</v>
       </c>
       <c r="C166">
         <v>4973991.972319424</v>
       </c>
       <c r="D166">
-        <v>8922466.508974135</v>
+        <v>8922466.508974139</v>
       </c>
       <c r="E166">
-        <v>14658881.29850827</v>
+        <v>14658881.29850826</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3196,13 +3196,13 @@
         <v>14656474.03965905</v>
       </c>
       <c r="C167">
-        <v>20962984.74043381</v>
+        <v>20962984.74043382</v>
       </c>
       <c r="D167">
-        <v>33201839.88794092</v>
+        <v>33201839.88794091</v>
       </c>
       <c r="E167">
-        <v>49695906.47793933</v>
+        <v>49695906.47793932</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3213,13 +3213,13 @@
         <v>856423.4092410052</v>
       </c>
       <c r="C168">
-        <v>951457.9908467701</v>
+        <v>951457.9908467695</v>
       </c>
       <c r="D168">
         <v>1126033.328092964</v>
       </c>
       <c r="E168">
-        <v>1078173.125155914</v>
+        <v>1078173.125155915</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3227,7 +3227,7 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>6937288.210023456</v>
+        <v>6937288.210023455</v>
       </c>
       <c r="C169">
         <v>10208019.59879588</v>
@@ -3236,7 +3236,7 @@
         <v>15072795.48780032</v>
       </c>
       <c r="E169">
-        <v>21097003.45275786</v>
+        <v>21097003.45275787</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3250,10 +3250,10 @@
         <v>23835346.13474166</v>
       </c>
       <c r="D170">
-        <v>36622640.32671162</v>
+        <v>36622640.32671164</v>
       </c>
       <c r="E170">
-        <v>52645918.52511157</v>
+        <v>52645918.52511154</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3261,10 +3261,10 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>5993439.473965843</v>
+        <v>5993439.473965842</v>
       </c>
       <c r="C171">
-        <v>8154682.323176017</v>
+        <v>8154682.323176019</v>
       </c>
       <c r="D171">
         <v>12941289.05518209</v>
@@ -3278,13 +3278,13 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>5644304.09768539</v>
+        <v>5644304.097685393</v>
       </c>
       <c r="C172">
         <v>7066479.089358705</v>
       </c>
       <c r="D172">
-        <v>8934152.17647602</v>
+        <v>8934152.176476024</v>
       </c>
       <c r="E172">
         <v>10474057.08876565</v>
@@ -3295,16 +3295,16 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>14043028.59504125</v>
+        <v>14043028.59504126</v>
       </c>
       <c r="C173">
         <v>19516942.24680023</v>
       </c>
       <c r="D173">
-        <v>30494254.94945947</v>
+        <v>30494254.94945949</v>
       </c>
       <c r="E173">
-        <v>45295703.02422339</v>
+        <v>45295703.02422337</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3321,7 +3321,7 @@
         <v>62914441.72751182</v>
       </c>
       <c r="E174">
-        <v>92890572.32164283</v>
+        <v>92890572.3216428</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3329,16 +3329,16 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>131083520.2317271</v>
+        <v>131083520.231727</v>
       </c>
       <c r="C175">
         <v>154207242.6372642</v>
       </c>
       <c r="D175">
-        <v>190311687.7845332</v>
+        <v>190311687.7845333</v>
       </c>
       <c r="E175">
-        <v>214040179.7296792</v>
+        <v>214040179.7296793</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3349,13 +3349,13 @@
         <v>13714644.00347173</v>
       </c>
       <c r="C176">
-        <v>18767313.36929434</v>
+        <v>18767313.36929435</v>
       </c>
       <c r="D176">
-        <v>26795824.13236341</v>
+        <v>26795824.13236339</v>
       </c>
       <c r="E176">
-        <v>35699562.28507367</v>
+        <v>35699562.28507368</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3363,16 +3363,16 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>9471676.014897667</v>
+        <v>9471676.014897665</v>
       </c>
       <c r="C177">
-        <v>16276077.08133491</v>
+        <v>16276077.08133492</v>
       </c>
       <c r="D177">
-        <v>28433346.71823006</v>
+        <v>28433346.71823005</v>
       </c>
       <c r="E177">
-        <v>44693997.45819613</v>
+        <v>44693997.45819614</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3380,16 +3380,16 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>3952644.493179162</v>
+        <v>3952644.493179161</v>
       </c>
       <c r="C178">
-        <v>6268857.302782803</v>
+        <v>6268857.302782802</v>
       </c>
       <c r="D178">
         <v>10186280.65297307</v>
       </c>
       <c r="E178">
-        <v>15374339.15356613</v>
+        <v>15374339.15356612</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3403,10 +3403,10 @@
         <v>21360074.99406254</v>
       </c>
       <c r="D179">
-        <v>33025661.94732282</v>
+        <v>33025661.94732284</v>
       </c>
       <c r="E179">
-        <v>46843618.02748831</v>
+        <v>46843618.0274883</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3414,7 +3414,7 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>624813.2906754996</v>
+        <v>624813.2906754994</v>
       </c>
       <c r="C180">
         <v>795893.0026905682</v>
@@ -3431,7 +3431,7 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>89259.04152507137</v>
+        <v>89259.04152507134</v>
       </c>
       <c r="C181">
         <v>113699.0003843669</v>
@@ -3451,13 +3451,13 @@
         <v>58314209.37280416</v>
       </c>
       <c r="C182">
-        <v>69035986.46305533</v>
+        <v>69035986.46305537</v>
       </c>
       <c r="D182">
-        <v>91477645.68520047</v>
+        <v>91477645.68520045</v>
       </c>
       <c r="E182">
-        <v>109241106.6355168</v>
+        <v>109241106.6355169</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3465,16 +3465,16 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>2953176.204147905</v>
+        <v>2953176.204147904</v>
       </c>
       <c r="C183">
-        <v>3092150.779794526</v>
+        <v>3092150.779794527</v>
       </c>
       <c r="D183">
-        <v>3544227.033587258</v>
+        <v>3544227.033587259</v>
       </c>
       <c r="E183">
-        <v>3257589.13093775</v>
+        <v>3257589.130937751</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3482,16 +3482,16 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>764720.4399756283</v>
+        <v>764720.4399756284</v>
       </c>
       <c r="C184">
-        <v>921813.4563059595</v>
+        <v>921813.4563059594</v>
       </c>
       <c r="D184">
-        <v>999366.1564176187</v>
+        <v>999366.1564176189</v>
       </c>
       <c r="E184">
-        <v>817124.0306493009</v>
+        <v>817124.0306493007</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3499,13 +3499,13 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>9864893.675685605</v>
+        <v>9864893.675685607</v>
       </c>
       <c r="C185">
         <v>14288108.57274237</v>
       </c>
       <c r="D185">
-        <v>21272222.47231788</v>
+        <v>21272222.47231789</v>
       </c>
       <c r="E185">
         <v>29779631.33921896</v>
@@ -3516,10 +3516,10 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>4534970.148318022</v>
+        <v>4534970.148318021</v>
       </c>
       <c r="C186">
-        <v>6938301.134111813</v>
+        <v>6938301.134111812</v>
       </c>
       <c r="D186">
         <v>10984918.38152534</v>
@@ -3536,13 +3536,13 @@
         <v>1891044.952187241</v>
       </c>
       <c r="C187">
-        <v>2784472.831581833</v>
+        <v>2784472.831581832</v>
       </c>
       <c r="D187">
-        <v>4518396.132981957</v>
+        <v>4518396.132981956</v>
       </c>
       <c r="E187">
-        <v>6749565.764969933</v>
+        <v>6749565.764969934</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3550,16 +3550,16 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>4770678.574933417</v>
+        <v>4770678.574933418</v>
       </c>
       <c r="C188">
-        <v>5761164.162496442</v>
+        <v>5761164.162496445</v>
       </c>
       <c r="D188">
         <v>7465675.845328107</v>
       </c>
       <c r="E188">
-        <v>8491240.888307167</v>
+        <v>8491240.888307171</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3567,16 +3567,16 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>65862821.47695847</v>
+        <v>65862821.47695848</v>
       </c>
       <c r="C189">
-        <v>88712560.35583952</v>
+        <v>88712560.35583957</v>
       </c>
       <c r="D189">
         <v>130581457.5128298</v>
       </c>
       <c r="E189">
-        <v>174601140.7658161</v>
+        <v>174601140.7658162</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3584,16 +3584,16 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>21039035.72974233</v>
+        <v>21039035.72974234</v>
       </c>
       <c r="C190">
-        <v>32787113.11989845</v>
+        <v>32787113.11989847</v>
       </c>
       <c r="D190">
         <v>49001981.45751721</v>
       </c>
       <c r="E190">
-        <v>67753026.2546176</v>
+        <v>67753026.25461763</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3601,13 +3601,13 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>997520.3822927732</v>
+        <v>997520.382292773</v>
       </c>
       <c r="C191">
-        <v>1548356.646200989</v>
+        <v>1548356.646200988</v>
       </c>
       <c r="D191">
-        <v>2442649.116532399</v>
+        <v>2442649.1165324</v>
       </c>
       <c r="E191">
         <v>3461973.283227062</v>
@@ -3618,13 +3618,13 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>4781132.520624345</v>
+        <v>4781132.520624346</v>
       </c>
       <c r="C192">
-        <v>6560029.213387709</v>
+        <v>6560029.213387705</v>
       </c>
       <c r="D192">
-        <v>9576302.251991611</v>
+        <v>9576302.251991609</v>
       </c>
       <c r="E192">
         <v>12447251.15098351</v>
@@ -3641,7 +3641,7 @@
         <v>18020333.67687061</v>
       </c>
       <c r="D193">
-        <v>26783496.65138735</v>
+        <v>26783496.65138737</v>
       </c>
       <c r="E193">
         <v>36836262.43103983</v>
@@ -3652,13 +3652,13 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>7926773.411507698</v>
+        <v>7926773.411507696</v>
       </c>
       <c r="C194">
         <v>11204951.06831057</v>
       </c>
       <c r="D194">
-        <v>17553026.05401657</v>
+        <v>17553026.05401658</v>
       </c>
       <c r="E194">
         <v>26138862.98768231</v>
@@ -3669,16 +3669,16 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>21330981.43490206</v>
+        <v>21330981.43490205</v>
       </c>
       <c r="C195">
         <v>36549403.50603352</v>
       </c>
       <c r="D195">
-        <v>56408795.23464664</v>
+        <v>56408795.23464665</v>
       </c>
       <c r="E195">
-        <v>81027429.19023815</v>
+        <v>81027429.19023816</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3689,13 +3689,13 @@
         <v>4706199.978758284</v>
       </c>
       <c r="C196">
-        <v>7024318.024638935</v>
+        <v>7024318.02463894</v>
       </c>
       <c r="D196">
-        <v>11694579.60942691</v>
+        <v>11694579.60942692</v>
       </c>
       <c r="E196">
-        <v>18039467.05383603</v>
+        <v>18039467.05383601</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3703,7 +3703,7 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>9653268.062456796</v>
+        <v>9653268.0624568</v>
       </c>
       <c r="C197">
         <v>13131265.67360942</v>
@@ -3712,7 +3712,7 @@
         <v>18089674.89223732</v>
       </c>
       <c r="E197">
-        <v>22438903.68349698</v>
+        <v>22438903.68349699</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3720,7 +3720,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>3162277.468735847</v>
+        <v>3162277.468735849</v>
       </c>
       <c r="C198">
         <v>4430467.686624316</v>
@@ -3729,7 +3729,7 @@
         <v>6320488.817769665</v>
       </c>
       <c r="E198">
-        <v>8209355.006157432</v>
+        <v>8209355.006157435</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3737,16 +3737,16 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>7817240.88626277</v>
+        <v>7817240.886262773</v>
       </c>
       <c r="C199">
-        <v>10070311.14241693</v>
+        <v>10070311.14241692</v>
       </c>
       <c r="D199">
         <v>13593429.13503239</v>
       </c>
       <c r="E199">
-        <v>16606318.72234002</v>
+        <v>16606318.72234003</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -3754,10 +3754,10 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>6127026.640584333</v>
+        <v>6127026.640584335</v>
       </c>
       <c r="C200">
-        <v>9689272.342433583</v>
+        <v>9689272.342433579</v>
       </c>
       <c r="D200">
         <v>14923221.11563338</v>
@@ -3771,13 +3771,13 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>7136057.338563634</v>
+        <v>7136057.338563636</v>
       </c>
       <c r="C201">
         <v>11049377.81830462</v>
       </c>
       <c r="D201">
-        <v>15891697.53892203</v>
+        <v>15891697.53892204</v>
       </c>
       <c r="E201">
         <v>20826464.4960988</v>
@@ -3788,13 +3788,13 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>49657289.47831328</v>
+        <v>49657289.47831327</v>
       </c>
       <c r="C202">
         <v>92437076.02271751</v>
       </c>
       <c r="D202">
-        <v>180489140.4647148</v>
+        <v>180489140.4647149</v>
       </c>
       <c r="E202">
         <v>301800270.3152325</v>
@@ -3814,7 +3814,7 @@
         <v>36972050.06142882</v>
       </c>
       <c r="E203">
-        <v>51799384.25575955</v>
+        <v>51799384.25575954</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -3822,7 +3822,7 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>6406266.154345933</v>
+        <v>6406266.154345931</v>
       </c>
       <c r="C204">
         <v>8831162.817298425</v>
@@ -3839,10 +3839,10 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>794293.2013234774</v>
+        <v>794293.2013234771</v>
       </c>
       <c r="C205">
-        <v>1211666.601328916</v>
+        <v>1211666.601328917</v>
       </c>
       <c r="D205">
         <v>1826092.060549811</v>
@@ -3862,7 +3862,7 @@
         <v>33590845.84609143</v>
       </c>
       <c r="D206">
-        <v>42199142.21807453</v>
+        <v>42199142.21807452</v>
       </c>
       <c r="E206">
         <v>46438512.986102</v>
@@ -3873,16 +3873,16 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>3108058.384813402</v>
+        <v>3108058.384813401</v>
       </c>
       <c r="C207">
-        <v>4364911.733719509</v>
+        <v>4364911.733719508</v>
       </c>
       <c r="D207">
-        <v>5922370.167907466</v>
+        <v>5922370.167907468</v>
       </c>
       <c r="E207">
-        <v>7066169.02939276</v>
+        <v>7066169.029392758</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -3890,16 +3890,16 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>2833008.970228145</v>
+        <v>2833008.970228144</v>
       </c>
       <c r="C208">
-        <v>4170049.602749888</v>
+        <v>4170049.602749887</v>
       </c>
       <c r="D208">
-        <v>6035177.218724751</v>
+        <v>6035177.218724753</v>
       </c>
       <c r="E208">
-        <v>7728622.375898332</v>
+        <v>7728622.375898329</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -3910,10 +3910,10 @@
         <v>20682964.12409961</v>
       </c>
       <c r="C209">
-        <v>30089952.94128771</v>
+        <v>30089952.9412877</v>
       </c>
       <c r="D209">
-        <v>43867336.71278612</v>
+        <v>43867336.7127861</v>
       </c>
       <c r="E209">
         <v>58659174.29823411</v>
@@ -3924,16 +3924,16 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>2255405.199599106</v>
+        <v>2255405.199599105</v>
       </c>
       <c r="C210">
-        <v>3897242.619392419</v>
+        <v>3897242.619392418</v>
       </c>
       <c r="D210">
-        <v>6317194.845767964</v>
+        <v>6317194.845767966</v>
       </c>
       <c r="E210">
-        <v>9200740.92368849</v>
+        <v>9200740.923688486</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -3944,13 +3944,13 @@
         <v>40206455.21455647</v>
       </c>
       <c r="C211">
-        <v>49285169.61796164</v>
+        <v>49285169.61796162</v>
       </c>
       <c r="D211">
         <v>64558313.55202327</v>
       </c>
       <c r="E211">
-        <v>75394740.82279518</v>
+        <v>75394740.82279521</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -3958,7 +3958,7 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>14795251.20342605</v>
+        <v>14795251.20342604</v>
       </c>
       <c r="C212">
         <v>20081892.36974635</v>
@@ -3978,13 +3978,13 @@
         <v>2557959.555642888</v>
       </c>
       <c r="C213">
-        <v>3858270.193198495</v>
+        <v>3858270.193198494</v>
       </c>
       <c r="D213">
-        <v>6091580.744133393</v>
+        <v>6091580.744133395</v>
       </c>
       <c r="E213">
-        <v>8832711.286740951</v>
+        <v>8832711.286740948</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -3995,13 +3995,13 @@
         <v>1748281.373411302</v>
       </c>
       <c r="C214">
-        <v>2584791.538398331</v>
+        <v>2584791.53839833</v>
       </c>
       <c r="D214">
-        <v>3811273.091480521</v>
+        <v>3811273.091480522</v>
       </c>
       <c r="E214">
-        <v>4863078.589748995</v>
+        <v>4863078.589748994</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4009,16 +4009,16 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>1456901.144509419</v>
+        <v>1456901.144509418</v>
       </c>
       <c r="C215">
-        <v>2305354.615328242</v>
+        <v>2305354.61532824</v>
       </c>
       <c r="D215">
         <v>3915691.532343002</v>
       </c>
       <c r="E215">
-        <v>5974639.410263051</v>
+        <v>5974639.410263049</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4026,10 +4026,10 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>5421845.70059182</v>
+        <v>5421845.700591818</v>
       </c>
       <c r="C216">
-        <v>8135296.651567912</v>
+        <v>8135296.651567914</v>
       </c>
       <c r="D216">
         <v>11819691.89222663</v>
@@ -4049,10 +4049,10 @@
         <v>4275221.098018896</v>
       </c>
       <c r="D217">
-        <v>9531692.168136878</v>
+        <v>9531692.168136885</v>
       </c>
       <c r="E217">
-        <v>17888106.68508404</v>
+        <v>17888106.68508406</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4060,13 +4060,13 @@
         <v>217</v>
       </c>
       <c r="B218">
-        <v>4527842.205210379</v>
+        <v>4527842.205210381</v>
       </c>
       <c r="C218">
         <v>6227693.898454668</v>
       </c>
       <c r="D218">
-        <v>8832747.95568615</v>
+        <v>8832747.955686156</v>
       </c>
       <c r="E218">
         <v>10969810.87701002</v>
@@ -4077,13 +4077,13 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>4272006.354414118</v>
+        <v>4272006.354414117</v>
       </c>
       <c r="C219">
-        <v>6420440.811600789</v>
+        <v>6420440.811600794</v>
       </c>
       <c r="D219">
-        <v>9281207.91377333</v>
+        <v>9281207.913773326</v>
       </c>
       <c r="E219">
         <v>11546305.66598792</v>
@@ -4094,13 +4094,13 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>4602033.621400314</v>
+        <v>4602033.621400315</v>
       </c>
       <c r="C220">
         <v>6804902.108121833</v>
       </c>
       <c r="D220">
-        <v>10234572.78810957</v>
+        <v>10234572.78810956</v>
       </c>
       <c r="E220">
         <v>13707219.53409432</v>
@@ -4111,16 +4111,16 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>3394695.039931788</v>
+        <v>3394695.039931787</v>
       </c>
       <c r="C221">
-        <v>4699189.7312541</v>
+        <v>4699189.731254102</v>
       </c>
       <c r="D221">
         <v>6466585.05661986</v>
       </c>
       <c r="E221">
-        <v>7776771.631801341</v>
+        <v>7776771.631801338</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4128,13 +4128,13 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>3261734.581410779</v>
+        <v>3261734.581410778</v>
       </c>
       <c r="C222">
-        <v>5413312.841153607</v>
+        <v>5413312.84115361</v>
       </c>
       <c r="D222">
-        <v>9649997.632201409</v>
+        <v>9649997.632201405</v>
       </c>
       <c r="E222">
         <v>15288901.29565297</v>
@@ -4145,16 +4145,16 @@
         <v>222</v>
       </c>
       <c r="B223">
-        <v>4190075.277410583</v>
+        <v>4190075.277410582</v>
       </c>
       <c r="C223">
-        <v>5095646.120315999</v>
+        <v>5095646.120316001</v>
       </c>
       <c r="D223">
-        <v>6209402.102337549</v>
+        <v>6209402.102337547</v>
       </c>
       <c r="E223">
-        <v>6309777.698485605</v>
+        <v>6309777.698485604</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4168,10 +4168,10 @@
         <v>3533253.903565963</v>
       </c>
       <c r="D224">
-        <v>5391301.753178474</v>
+        <v>5391301.753178476</v>
       </c>
       <c r="E224">
-        <v>7274740.478775477</v>
+        <v>7274740.478775482</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4182,13 +4182,13 @@
         <v>2604006.426198184</v>
       </c>
       <c r="C225">
-        <v>3587928.448550588</v>
+        <v>3587928.448550587</v>
       </c>
       <c r="D225">
-        <v>5001364.31556375</v>
+        <v>5001364.315563752</v>
       </c>
       <c r="E225">
-        <v>6000010.894717784</v>
+        <v>6000010.894717782</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4205,7 +4205,7 @@
         <v>5321965.091666724</v>
       </c>
       <c r="E226">
-        <v>7309917.89055017</v>
+        <v>7309917.890550169</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4213,16 +4213,16 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>2503469.065011466</v>
+        <v>2503469.065011467</v>
       </c>
       <c r="C227">
         <v>3614520.387134274</v>
       </c>
       <c r="D227">
-        <v>5835277.913666118</v>
+        <v>5835277.913666117</v>
       </c>
       <c r="E227">
-        <v>8672305.254602158</v>
+        <v>8672305.25460216</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4230,16 +4230,16 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>20455759.98111805</v>
+        <v>20455759.98111804</v>
       </c>
       <c r="C228">
-        <v>26576827.27325164</v>
+        <v>26576827.27325163</v>
       </c>
       <c r="D228">
-        <v>34762049.62504436</v>
+        <v>34762049.62504435</v>
       </c>
       <c r="E228">
-        <v>35931836.25353532</v>
+        <v>35931836.25353531</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4247,13 +4247,13 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>4451640.365798997</v>
+        <v>4451640.365798998</v>
       </c>
       <c r="C229">
         <v>7025840.488255658</v>
       </c>
       <c r="D229">
-        <v>10362504.94796094</v>
+        <v>10362504.94796093</v>
       </c>
       <c r="E229">
         <v>13296823.73966036</v>
@@ -4264,16 +4264,16 @@
         <v>229</v>
       </c>
       <c r="B230">
-        <v>3386537.229386467</v>
+        <v>3386537.229386465</v>
       </c>
       <c r="C230">
-        <v>4536996.710189436</v>
+        <v>4536996.710189437</v>
       </c>
       <c r="D230">
-        <v>6263612.605067634</v>
+        <v>6263612.605067631</v>
       </c>
       <c r="E230">
-        <v>7721316.169106212</v>
+        <v>7721316.169106211</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -4281,13 +4281,13 @@
         <v>230</v>
       </c>
       <c r="B231">
-        <v>10168504.23379627</v>
+        <v>10168504.23379628</v>
       </c>
       <c r="C231">
         <v>19964696.40599898</v>
       </c>
       <c r="D231">
-        <v>32358689.90420797</v>
+        <v>32358689.90420796</v>
       </c>
       <c r="E231">
         <v>45635657.60915881</v>
@@ -4307,7 +4307,7 @@
         <v>5769150.161962415</v>
       </c>
       <c r="E232">
-        <v>9074469.442018835</v>
+        <v>9074469.442018837</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4324,7 +4324,7 @@
         <v>5909067.105747779</v>
       </c>
       <c r="E233">
-        <v>9262986.897200366</v>
+        <v>9262986.897200352</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4335,13 +4335,13 @@
         <v>13086117.84693054</v>
       </c>
       <c r="C234">
-        <v>18884756.52249825</v>
+        <v>18884756.52249826</v>
       </c>
       <c r="D234">
-        <v>27015320.63134741</v>
+        <v>27015320.63134739</v>
       </c>
       <c r="E234">
-        <v>34305922.86228945</v>
+        <v>34305922.86228947</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4355,10 +4355,10 @@
         <v>17876985.29275937</v>
       </c>
       <c r="D235">
-        <v>27649483.08748232</v>
+        <v>27649483.0874823</v>
       </c>
       <c r="E235">
-        <v>38298773.74174832</v>
+        <v>38298773.74174835</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4372,10 +4372,10 @@
         <v>21031747.40324632</v>
       </c>
       <c r="D236">
-        <v>25239665.75416964</v>
+        <v>25239665.75416962</v>
       </c>
       <c r="E236">
-        <v>24771972.80317338</v>
+        <v>24771972.8031734</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4389,10 +4389,10 @@
         <v>3929294.808957488</v>
       </c>
       <c r="D237">
-        <v>6070139.244536136</v>
+        <v>6070139.244536139</v>
       </c>
       <c r="E237">
-        <v>8336152.499916138</v>
+        <v>8336152.499916136</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4400,16 +4400,16 @@
         <v>237</v>
       </c>
       <c r="B238">
-        <v>2650731.951188611</v>
+        <v>2650731.951188612</v>
       </c>
       <c r="C238">
         <v>3786640.40556924</v>
       </c>
       <c r="D238">
-        <v>5784973.79372072</v>
+        <v>5784973.793720719</v>
       </c>
       <c r="E238">
-        <v>8071914.890822009</v>
+        <v>8071914.890822011</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -4420,10 +4420,10 @@
         <v>3923383.379158793</v>
       </c>
       <c r="C239">
-        <v>4469453.758451561</v>
+        <v>4469453.758451562</v>
       </c>
       <c r="D239">
-        <v>5470105.866186894</v>
+        <v>5470105.866186896</v>
       </c>
       <c r="E239">
         <v>5664911.727518161</v>
@@ -4437,10 +4437,10 @@
         <v>3193371.165121749</v>
       </c>
       <c r="C240">
-        <v>5094220.897954462</v>
+        <v>5094220.897954461</v>
       </c>
       <c r="D240">
-        <v>8518637.654812695</v>
+        <v>8518637.654812697</v>
       </c>
       <c r="E240">
         <v>12567191.92368718</v>
@@ -4457,7 +4457,7 @@
         <v>1168340.386880843</v>
       </c>
       <c r="D241">
-        <v>1533129.319177215</v>
+        <v>1533129.319177216</v>
       </c>
       <c r="E241">
         <v>1734348.034729038</v>
@@ -4471,13 +4471,13 @@
         <v>2499729.983949771</v>
       </c>
       <c r="C242">
-        <v>4117385.288336926</v>
+        <v>4117385.288336928</v>
       </c>
       <c r="D242">
         <v>6919246.010583251</v>
       </c>
       <c r="E242">
-        <v>10341451.6380337</v>
+        <v>10341451.63803369</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -4485,16 +4485,16 @@
         <v>242</v>
       </c>
       <c r="B243">
-        <v>3737862.835613274</v>
+        <v>3737862.835613273</v>
       </c>
       <c r="C243">
-        <v>5894284.450883262</v>
+        <v>5894284.450883263</v>
       </c>
       <c r="D243">
-        <v>8797030.639401019</v>
+        <v>8797030.639401024</v>
       </c>
       <c r="E243">
-        <v>11622047.67412216</v>
+        <v>11622047.67412217</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -4502,16 +4502,16 @@
         <v>243</v>
       </c>
       <c r="B244">
-        <v>3209529.855935509</v>
+        <v>3209529.855935508</v>
       </c>
       <c r="C244">
-        <v>4475418.791670571</v>
+        <v>4475418.791670574</v>
       </c>
       <c r="D244">
         <v>6531250.907186059</v>
       </c>
       <c r="E244">
-        <v>8521356.149739766</v>
+        <v>8521356.149739763</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4522,10 +4522,10 @@
         <v>3153718.819351237</v>
       </c>
       <c r="C245">
-        <v>5396261.629208345</v>
+        <v>5396261.629208346</v>
       </c>
       <c r="D245">
-        <v>9323752.249144213</v>
+        <v>9323752.24914421</v>
       </c>
       <c r="E245">
         <v>14117833.73942355</v>
@@ -4536,16 +4536,16 @@
         <v>245</v>
       </c>
       <c r="B246">
-        <v>936232.1497329418</v>
+        <v>936232.1497329415</v>
       </c>
       <c r="C246">
-        <v>2000569.203842602</v>
+        <v>2000569.203842603</v>
       </c>
       <c r="D246">
         <v>4979202.3183041</v>
       </c>
       <c r="E246">
-        <v>9549239.079519218</v>
+        <v>9549239.079519212</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -4553,16 +4553,16 @@
         <v>246</v>
       </c>
       <c r="B247">
-        <v>936232.1497329418</v>
+        <v>936232.1497329415</v>
       </c>
       <c r="C247">
-        <v>2000569.203842602</v>
+        <v>2000569.203842603</v>
       </c>
       <c r="D247">
         <v>4979202.3183041</v>
       </c>
       <c r="E247">
-        <v>9549239.079519218</v>
+        <v>9549239.079519212</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -4570,16 +4570,16 @@
         <v>247</v>
       </c>
       <c r="B248">
-        <v>42959480.41325695</v>
+        <v>42959480.41325694</v>
       </c>
       <c r="C248">
         <v>53416086.3424429</v>
       </c>
       <c r="D248">
-        <v>67018801.81066865</v>
+        <v>67018801.81066862</v>
       </c>
       <c r="E248">
-        <v>72618822.27409749</v>
+        <v>72618822.27409743</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -4587,16 +4587,16 @@
         <v>248</v>
       </c>
       <c r="B249">
-        <v>19478827.97422255</v>
+        <v>19478827.97422254</v>
       </c>
       <c r="C249">
-        <v>25733614.18702627</v>
+        <v>25733614.18702626</v>
       </c>
       <c r="D249">
-        <v>35315425.23412611</v>
+        <v>35315425.2341261</v>
       </c>
       <c r="E249">
-        <v>39761780.04024936</v>
+        <v>39761780.04024934</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -4607,7 +4607,7 @@
         <v>19322314.28103397</v>
       </c>
       <c r="C250">
-        <v>27390909.26685995</v>
+        <v>27390909.26685997</v>
       </c>
       <c r="D250">
         <v>36562936.5258489</v>
@@ -4621,13 +4621,13 @@
         <v>250</v>
       </c>
       <c r="B251">
-        <v>10707084.88240263</v>
+        <v>10707084.88240264</v>
       </c>
       <c r="C251">
         <v>15546465.90951878</v>
       </c>
       <c r="D251">
-        <v>22359434.20615209</v>
+        <v>22359434.20615211</v>
       </c>
       <c r="E251">
         <v>29606411.49255759</v>
@@ -4641,10 +4641,10 @@
         <v>4906726.52529147</v>
       </c>
       <c r="C252">
-        <v>8050144.480614317</v>
+        <v>8050144.480614316</v>
       </c>
       <c r="D252">
-        <v>13930034.60778008</v>
+        <v>13930034.60778007</v>
       </c>
       <c r="E252">
         <v>21940435.35995658</v>
@@ -4655,13 +4655,13 @@
         <v>252</v>
       </c>
       <c r="B253">
-        <v>576510.9351209548</v>
+        <v>576510.9351209549</v>
       </c>
       <c r="C253">
-        <v>687813.170560985</v>
+        <v>687813.1705609848</v>
       </c>
       <c r="D253">
-        <v>872389.1873441756</v>
+        <v>872389.187344176</v>
       </c>
       <c r="E253">
         <v>990638.767412158</v>
@@ -4681,7 +4681,7 @@
         <v>16577156.46333557</v>
       </c>
       <c r="E254">
-        <v>16602794.08219628</v>
+        <v>16602794.08219629</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -4689,13 +4689,13 @@
         <v>254</v>
       </c>
       <c r="B255">
-        <v>614944.9974623517</v>
+        <v>614944.9974623518</v>
       </c>
       <c r="C255">
-        <v>740721.875988753</v>
+        <v>740721.8759887528</v>
       </c>
       <c r="D255">
-        <v>872389.1873441756</v>
+        <v>872389.187344176</v>
       </c>
       <c r="E255">
         <v>810522.6278826748</v>
@@ -4706,16 +4706,16 @@
         <v>255</v>
       </c>
       <c r="B256">
-        <v>4001055.541154423</v>
+        <v>4001055.541154426</v>
       </c>
       <c r="C256">
-        <v>4938550.528947009</v>
+        <v>4938550.528947011</v>
       </c>
       <c r="D256">
-        <v>6304802.914682251</v>
+        <v>6304802.914682249</v>
       </c>
       <c r="E256">
-        <v>7306154.873460546</v>
+        <v>7306154.873460545</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -4729,10 +4729,10 @@
         <v>1743832.027354663</v>
       </c>
       <c r="D257">
-        <v>2208952.925372561</v>
+        <v>2208952.925372562</v>
       </c>
       <c r="E257">
-        <v>2442483.736908556</v>
+        <v>2442483.736908555</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -4740,7 +4740,7 @@
         <v>257</v>
       </c>
       <c r="B258">
-        <v>1086500.417684604</v>
+        <v>1086500.417684605</v>
       </c>
       <c r="C258">
         <v>1597304.741884801</v>
@@ -4749,7 +4749,7 @@
         <v>2560338.506017829</v>
       </c>
       <c r="E258">
-        <v>3536788.891823994</v>
+        <v>3536788.891823995</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -4757,7 +4757,7 @@
         <v>258</v>
       </c>
       <c r="B259">
-        <v>1113662.928126719</v>
+        <v>1113662.92812672</v>
       </c>
       <c r="C259">
         <v>1677169.978979041</v>
@@ -4766,7 +4766,7 @@
         <v>2499378.065398357</v>
       </c>
       <c r="E259">
-        <v>3295644.194654176</v>
+        <v>3295644.194654177</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -4774,13 +4774,13 @@
         <v>259</v>
       </c>
       <c r="B260">
-        <v>5035108.82568597</v>
+        <v>5035108.825685973</v>
       </c>
       <c r="C260">
         <v>10313619.92293866</v>
       </c>
       <c r="D260">
-        <v>22861894.63963852</v>
+        <v>22861894.63963853</v>
       </c>
       <c r="E260">
         <v>35854503.64982039</v>
@@ -4800,7 +4800,7 @@
         <v>4231629.412563079</v>
       </c>
       <c r="E261">
-        <v>6109395.231736684</v>
+        <v>6109395.231736679</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -4808,16 +4808,16 @@
         <v>261</v>
       </c>
       <c r="B262">
-        <v>913785.0245782705</v>
+        <v>913785.0245782706</v>
       </c>
       <c r="C262">
         <v>1834694.02075324</v>
       </c>
       <c r="D262">
-        <v>4647004.026106488</v>
+        <v>4647004.026106491</v>
       </c>
       <c r="E262">
-        <v>8522585.868996967</v>
+        <v>8522585.86899697</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -4831,10 +4831,10 @@
         <v>2223739.519864732</v>
       </c>
       <c r="D263">
-        <v>4364998.974658213</v>
+        <v>4364998.974658214</v>
       </c>
       <c r="E263">
-        <v>6054094.919589212</v>
+        <v>6054094.919589215</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -4842,13 +4842,13 @@
         <v>263</v>
       </c>
       <c r="B264">
-        <v>629604.054974321</v>
+        <v>629604.0549743212</v>
       </c>
       <c r="C264">
         <v>1015343.031570343</v>
       </c>
       <c r="D264">
-        <v>2155355.570817036</v>
+        <v>2155355.570817037</v>
       </c>
       <c r="E264">
         <v>3305383.592338427</v>
@@ -4859,13 +4859,13 @@
         <v>264</v>
       </c>
       <c r="B265">
-        <v>619610.3398159986</v>
+        <v>619610.3398159987</v>
       </c>
       <c r="C265">
         <v>1015343.031570343</v>
       </c>
       <c r="D265">
-        <v>2155355.570817036</v>
+        <v>2155355.570817037</v>
       </c>
       <c r="E265">
         <v>3370195.035325455</v>
@@ -4882,10 +4882,10 @@
         <v>1084618.585380775</v>
       </c>
       <c r="D266">
-        <v>2520477.727334556</v>
+        <v>2520477.727334555</v>
       </c>
       <c r="E266">
-        <v>4368469.9416319</v>
+        <v>4368469.941631902</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -4893,13 +4893,13 @@
         <v>266</v>
       </c>
       <c r="B267">
-        <v>729541.2065575466</v>
+        <v>729541.2065575467</v>
       </c>
       <c r="C267">
-        <v>1120378.517594861</v>
+        <v>1120378.517594862</v>
       </c>
       <c r="D267">
-        <v>2075527.586712701</v>
+        <v>2075527.586712702</v>
       </c>
       <c r="E267">
         <v>2527646.276494091</v>
@@ -4910,7 +4910,7 @@
         <v>267</v>
       </c>
       <c r="B268">
-        <v>887333.5961889253</v>
+        <v>887333.5961889252</v>
       </c>
       <c r="C268">
         <v>1661281.767747898</v>
@@ -4919,7 +4919,7 @@
         <v>4502453.694967116</v>
       </c>
       <c r="E268">
-        <v>7695488.2245914</v>
+        <v>7695488.224591394</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -4936,7 +4936,7 @@
         <v>4265482.447863584</v>
       </c>
       <c r="E269">
-        <v>6226883.601577775</v>
+        <v>6226883.601577769</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -4944,7 +4944,7 @@
         <v>269</v>
       </c>
       <c r="B270">
-        <v>732360.9888710416</v>
+        <v>732360.9888710419</v>
       </c>
       <c r="C270">
         <v>1552783.056236022</v>
@@ -4953,7 +4953,7 @@
         <v>3869882.622092065</v>
       </c>
       <c r="E270">
-        <v>6440713.10312874</v>
+        <v>6440713.103128739</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -4961,13 +4961,13 @@
         <v>270</v>
       </c>
       <c r="B271">
-        <v>219318.7611865226</v>
+        <v>219318.7611865223</v>
       </c>
       <c r="C271">
         <v>428653.3069442061</v>
       </c>
       <c r="D271">
-        <v>919012.4152112582</v>
+        <v>919012.415211259</v>
       </c>
       <c r="E271">
         <v>1136951.317218358</v>
@@ -4978,13 +4978,13 @@
         <v>271</v>
       </c>
       <c r="B272">
-        <v>158113.5255065628</v>
+        <v>158113.5255065626</v>
       </c>
       <c r="C272">
         <v>359141.9598721727</v>
       </c>
       <c r="D272">
-        <v>1014082.665060699</v>
+        <v>1014082.6650607</v>
       </c>
       <c r="E272">
         <v>1786637.784200277</v>
@@ -4998,13 +4998,13 @@
         <v>590657.5633952088</v>
       </c>
       <c r="C273">
-        <v>1166098.108045146</v>
+        <v>1166098.108045145</v>
       </c>
       <c r="D273">
-        <v>2701015.484241529</v>
+        <v>2701015.48424153</v>
       </c>
       <c r="E273">
-        <v>4217371.890177615</v>
+        <v>4217371.890177611</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5015,13 +5015,13 @@
         <v>715444.3725632107</v>
       </c>
       <c r="C274">
-        <v>1270524.804287995</v>
+        <v>1270524.804287994</v>
       </c>
       <c r="D274">
-        <v>2576353.231122689</v>
+        <v>2576353.23112269</v>
       </c>
       <c r="E274">
-        <v>3213235.725849611</v>
+        <v>3213235.725849608</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5035,10 +5035,10 @@
         <v>2970012.187877868</v>
       </c>
       <c r="D275">
-        <v>6224033.734990906</v>
+        <v>6224033.734990904</v>
       </c>
       <c r="E275">
-        <v>9500606.340737302</v>
+        <v>9500606.340737296</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5049,13 +5049,13 @@
         <v>291296.2008192829</v>
       </c>
       <c r="C276">
-        <v>621567.2657305594</v>
+        <v>621567.2657305592</v>
       </c>
       <c r="D276">
-        <v>1540942.84961471</v>
+        <v>1540942.849614709</v>
       </c>
       <c r="E276">
-        <v>2379343.004808886</v>
+        <v>2379343.004808888</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -5069,10 +5069,10 @@
         <v>4069937.804197756</v>
       </c>
       <c r="D277">
-        <v>6435607.051719857</v>
+        <v>6435607.051719858</v>
       </c>
       <c r="E277">
-        <v>7624697.416472749</v>
+        <v>7624697.416472748</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -5083,13 +5083,13 @@
         <v>1806757.001941324</v>
       </c>
       <c r="C278">
-        <v>3021968.796213804</v>
+        <v>3021968.796213806</v>
       </c>
       <c r="D278">
         <v>5033824.995435189</v>
       </c>
       <c r="E278">
-        <v>6825764.046547011</v>
+        <v>6825764.046547004</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -5097,16 +5097,16 @@
         <v>278</v>
       </c>
       <c r="B279">
-        <v>799124.7301269553</v>
+        <v>799124.7301269548</v>
       </c>
       <c r="C279">
-        <v>1124982.128002544</v>
+        <v>1124982.128002545</v>
       </c>
       <c r="D279">
         <v>1543950.360926848</v>
       </c>
       <c r="E279">
-        <v>1786011.500701908</v>
+        <v>1786011.500701907</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -5114,16 +5114,16 @@
         <v>279</v>
       </c>
       <c r="B280">
-        <v>821956.8652734398</v>
+        <v>821956.8652734392</v>
       </c>
       <c r="C280">
-        <v>1124982.128002544</v>
+        <v>1124982.128002545</v>
       </c>
       <c r="D280">
         <v>1543950.360926848</v>
       </c>
       <c r="E280">
-        <v>1786011.500701908</v>
+        <v>1786011.500701907</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -5131,13 +5131,13 @@
         <v>280</v>
       </c>
       <c r="B281">
-        <v>1918532.338183392</v>
+        <v>1918532.338183393</v>
       </c>
       <c r="C281">
         <v>3445092.016479228</v>
       </c>
       <c r="D281">
-        <v>7222701.554776185</v>
+        <v>7222701.554776187</v>
       </c>
       <c r="E281">
         <v>9688756.235458894</v>
@@ -5148,13 +5148,13 @@
         <v>281</v>
       </c>
       <c r="B282">
-        <v>685515.5049488455</v>
+        <v>685515.5049488454</v>
       </c>
       <c r="C282">
         <v>1124930.093082623</v>
       </c>
       <c r="D282">
-        <v>2150711.316394219</v>
+        <v>2150711.31639422</v>
       </c>
       <c r="E282">
         <v>2309108.075630824</v>
@@ -5165,13 +5165,13 @@
         <v>282</v>
       </c>
       <c r="B283">
-        <v>654355.7092693525</v>
+        <v>654355.7092693524</v>
       </c>
       <c r="C283">
         <v>1099650.765148182</v>
       </c>
       <c r="D283">
-        <v>2213050.774840428</v>
+        <v>2213050.774840429</v>
       </c>
       <c r="E283">
         <v>2603887.829966674</v>
@@ -5182,7 +5182,7 @@
         <v>283</v>
       </c>
       <c r="B284">
-        <v>535948.4856872793</v>
+        <v>535948.4856872791</v>
       </c>
       <c r="C284">
         <v>1023812.781344859</v>
@@ -5191,7 +5191,7 @@
         <v>2337729.691732847</v>
       </c>
       <c r="E284">
-        <v>3340837.215806299</v>
+        <v>3340837.215806298</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -5199,16 +5199,16 @@
         <v>284</v>
       </c>
       <c r="B285">
-        <v>409054.2394483548</v>
+        <v>409054.2394483547</v>
       </c>
       <c r="C285">
-        <v>684992.4969275552</v>
+        <v>684992.4969275551</v>
       </c>
       <c r="D285">
-        <v>1383703.783327495</v>
+        <v>1383703.783327494</v>
       </c>
       <c r="E285">
-        <v>1586228.669872591</v>
+        <v>1586228.669872592</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5216,7 +5216,7 @@
         <v>285</v>
       </c>
       <c r="B286">
-        <v>936117.5410058619</v>
+        <v>936117.5410058614</v>
       </c>
       <c r="C286">
         <v>1160137.819502624</v>
@@ -5225,7 +5225,7 @@
         <v>1543950.360926848</v>
       </c>
       <c r="E286">
-        <v>1562760.063114169</v>
+        <v>1562760.063114168</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -5233,16 +5233,16 @@
         <v>286</v>
       </c>
       <c r="B287">
-        <v>6265479.268455708</v>
+        <v>6265479.268455706</v>
       </c>
       <c r="C287">
-        <v>9969920.541014021</v>
+        <v>9969920.541014019</v>
       </c>
       <c r="D287">
         <v>15821603.96016908</v>
       </c>
       <c r="E287">
-        <v>21697804.45422341</v>
+        <v>21697804.4542234</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -5256,7 +5256,7 @@
         <v>4609351.35440548</v>
       </c>
       <c r="D288">
-        <v>8675925.958398037</v>
+        <v>8675925.958398039</v>
       </c>
       <c r="E288">
         <v>13696408.76214536</v>
@@ -5267,7 +5267,7 @@
         <v>288</v>
       </c>
       <c r="B289">
-        <v>79452683.19345532</v>
+        <v>79452683.19345528</v>
       </c>
       <c r="C289">
         <v>105331221.9483286</v>
@@ -5284,16 +5284,16 @@
         <v>289</v>
       </c>
       <c r="B290">
-        <v>5197171.743419481</v>
+        <v>5197171.74341948</v>
       </c>
       <c r="C290">
-        <v>8852958.488701247</v>
+        <v>8852958.488701245</v>
       </c>
       <c r="D290">
         <v>16264608.87105381</v>
       </c>
       <c r="E290">
-        <v>26122454.77430034</v>
+        <v>26122454.77430033</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5307,10 +5307,10 @@
         <v>5706034.525993083</v>
       </c>
       <c r="D291">
-        <v>8315435.940190397</v>
+        <v>8315435.940190399</v>
       </c>
       <c r="E291">
-        <v>9553135.972334944</v>
+        <v>9553135.972334946</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -5318,16 +5318,16 @@
         <v>291</v>
       </c>
       <c r="B292">
-        <v>619910.8584056905</v>
+        <v>619910.8584056909</v>
       </c>
       <c r="C292">
-        <v>963775.6416097338</v>
+        <v>963775.641609734</v>
       </c>
       <c r="D292">
-        <v>1560844.768107977</v>
+        <v>1560844.768107976</v>
       </c>
       <c r="E292">
-        <v>2047392.452697783</v>
+        <v>2047392.452697782</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -5335,13 +5335,13 @@
         <v>292</v>
       </c>
       <c r="B293">
-        <v>2865931.885651076</v>
+        <v>2865931.885651078</v>
       </c>
       <c r="C293">
         <v>4660882.527056103</v>
       </c>
       <c r="D293">
-        <v>7935886.524988507</v>
+        <v>7935886.524988505</v>
       </c>
       <c r="E293">
         <v>11557388.11763145</v>
@@ -5352,13 +5352,13 @@
         <v>293</v>
       </c>
       <c r="B294">
-        <v>803588.1497851544</v>
+        <v>803588.1497851548</v>
       </c>
       <c r="C294">
         <v>1070861.824010815</v>
       </c>
       <c r="D294">
-        <v>1445226.637137016</v>
+        <v>1445226.637137015</v>
       </c>
       <c r="E294">
         <v>1496171.407740687</v>
@@ -5369,7 +5369,7 @@
         <v>294</v>
       </c>
       <c r="B295">
-        <v>6780690.261674792</v>
+        <v>6780690.261674793</v>
       </c>
       <c r="C295">
         <v>10717557.29239888</v>
@@ -5386,13 +5386,13 @@
         <v>295</v>
       </c>
       <c r="B296">
-        <v>3063212.925819003</v>
+        <v>3063212.925819002</v>
       </c>
       <c r="C296">
-        <v>4567963.06192861</v>
+        <v>4567963.061928608</v>
       </c>
       <c r="D296">
-        <v>7726837.021304743</v>
+        <v>7726837.021304744</v>
       </c>
       <c r="E296">
         <v>10973323.70629947</v>
@@ -5406,13 +5406,13 @@
         <v>1833643.151984809</v>
       </c>
       <c r="C297">
-        <v>3472172.602522979</v>
+        <v>3472172.602522981</v>
       </c>
       <c r="D297">
         <v>8455924.155536309</v>
       </c>
       <c r="E297">
-        <v>16314849.30575004</v>
+        <v>16314849.30575003</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -5423,13 +5423,13 @@
         <v>7207977.349013537</v>
       </c>
       <c r="C298">
-        <v>12498837.0987593</v>
+        <v>12498837.09875931</v>
       </c>
       <c r="D298">
-        <v>23122631.05647147</v>
+        <v>23122631.05647148</v>
       </c>
       <c r="E298">
-        <v>35148630.30982862</v>
+        <v>35148630.30982864</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -5446,7 +5446,7 @@
         <v>29608152.81187867</v>
       </c>
       <c r="E299">
-        <v>46246643.48562399</v>
+        <v>46246643.48562401</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -5454,16 +5454,16 @@
         <v>299</v>
       </c>
       <c r="B300">
-        <v>7876969.52553838</v>
+        <v>7876969.525538382</v>
       </c>
       <c r="C300">
         <v>11297709.9663464</v>
       </c>
       <c r="D300">
-        <v>17843214.06382281</v>
+        <v>17843214.06382282</v>
       </c>
       <c r="E300">
-        <v>22616378.55227603</v>
+        <v>22616378.55227602</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -5474,13 +5474,13 @@
         <v>2940789.522760201</v>
       </c>
       <c r="C301">
-        <v>4556296.539767495</v>
+        <v>4556296.539767496</v>
       </c>
       <c r="D301">
-        <v>7975818.059337305</v>
+        <v>7975818.059337302</v>
       </c>
       <c r="E301">
-        <v>11666635.86639304</v>
+        <v>11666635.86639303</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -5491,7 +5491,7 @@
         <v>11017180.34851235</v>
       </c>
       <c r="C302">
-        <v>14794249.55349998</v>
+        <v>14794249.55349997</v>
       </c>
       <c r="D302">
         <v>22022724.37373496</v>
@@ -5508,7 +5508,7 @@
         <v>11017180.34851235</v>
       </c>
       <c r="C303">
-        <v>14794249.55349998</v>
+        <v>14794249.55349997</v>
       </c>
       <c r="D303">
         <v>22022724.37373496</v>
@@ -5525,10 +5525,10 @@
         <v>1276965.782700737</v>
       </c>
       <c r="C304">
-        <v>2001175.719482795</v>
+        <v>2001175.719482794</v>
       </c>
       <c r="D304">
-        <v>3372052.435591639</v>
+        <v>3372052.435591641</v>
       </c>
       <c r="E304">
         <v>4398815.061122796</v>
@@ -5545,7 +5545,7 @@
         <v>1751028.754547445</v>
       </c>
       <c r="D305">
-        <v>3523039.858080817</v>
+        <v>3523039.858080819</v>
       </c>
       <c r="E305">
         <v>5718459.579459636</v>
@@ -5579,7 +5579,7 @@
         <v>1889999.290622639</v>
       </c>
       <c r="D307">
-        <v>3422381.576421366</v>
+        <v>3422381.576421367</v>
       </c>
       <c r="E307">
         <v>5058637.320291216</v>
@@ -5593,10 +5593,10 @@
         <v>268843.5768142322</v>
       </c>
       <c r="C308">
-        <v>577889.836487543</v>
+        <v>577889.8364875431</v>
       </c>
       <c r="D308">
-        <v>1344162.020741465</v>
+        <v>1344162.020741464</v>
       </c>
       <c r="E308">
         <v>2404532.783521813</v>
@@ -5616,7 +5616,7 @@
         <v>1259918.431882937</v>
       </c>
       <c r="E309">
-        <v>2070732.165037383</v>
+        <v>2070732.165037384</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -5630,10 +5630,10 @@
         <v>1980615.880694927</v>
       </c>
       <c r="D310">
-        <v>3364825.815630276</v>
+        <v>3364825.815630277</v>
       </c>
       <c r="E310">
-        <v>4574175.004977617</v>
+        <v>4574175.004977618</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -5647,10 +5647,10 @@
         <v>449091.7869873976</v>
       </c>
       <c r="D311">
-        <v>955534.6025731456</v>
+        <v>955534.6025731452</v>
       </c>
       <c r="E311">
-        <v>1409743.951240409</v>
+        <v>1409743.951240408</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -5658,16 +5658,16 @@
         <v>311</v>
       </c>
       <c r="B312">
-        <v>320055.8104785196</v>
+        <v>320055.8104785195</v>
       </c>
       <c r="C312">
         <v>477160.02367411</v>
       </c>
       <c r="D312">
-        <v>922585.1335188992</v>
+        <v>922585.1335188989</v>
       </c>
       <c r="E312">
-        <v>1138639.345232638</v>
+        <v>1138639.345232637</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -5681,10 +5681,10 @@
         <v>477160.02367411</v>
       </c>
       <c r="D313">
-        <v>922585.1335188992</v>
+        <v>922585.1335188989</v>
       </c>
       <c r="E313">
-        <v>1138639.345232638</v>
+        <v>1138639.345232637</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -5698,10 +5698,10 @@
         <v>449091.7869873976</v>
       </c>
       <c r="D314">
-        <v>988484.0716273921</v>
+        <v>988484.0716273916</v>
       </c>
       <c r="E314">
-        <v>1518185.793643517</v>
+        <v>1518185.793643516</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -5712,13 +5712,13 @@
         <v>18521976.45646069</v>
       </c>
       <c r="C315">
-        <v>24976753.18067119</v>
+        <v>24976753.1806712</v>
       </c>
       <c r="D315">
-        <v>35650652.22600565</v>
+        <v>35650652.22600567</v>
       </c>
       <c r="E315">
-        <v>44562071.26180365</v>
+        <v>44562071.26180366</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -5735,7 +5735,7 @@
         <v>59659248.46707162</v>
       </c>
       <c r="E316">
-        <v>75959123.21455002</v>
+        <v>75959123.21455005</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -5743,16 +5743,16 @@
         <v>316</v>
       </c>
       <c r="B317">
-        <v>9479255.503869219</v>
+        <v>9479255.503869213</v>
       </c>
       <c r="C317">
-        <v>13055016.13538247</v>
+        <v>13055016.13538248</v>
       </c>
       <c r="D317">
-        <v>19298376.75072474</v>
+        <v>19298376.75072473</v>
       </c>
       <c r="E317">
-        <v>26530365.70419279</v>
+        <v>26530365.70419281</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -5760,10 +5760,10 @@
         <v>317</v>
       </c>
       <c r="B318">
-        <v>4641577.024860879</v>
+        <v>4641577.024860881</v>
       </c>
       <c r="C318">
-        <v>6743715.183448195</v>
+        <v>6743715.183448191</v>
       </c>
       <c r="D318">
         <v>10112967.51233248</v>
@@ -5777,16 +5777,16 @@
         <v>318</v>
       </c>
       <c r="B319">
-        <v>2973778.16216611</v>
+        <v>2973778.162166111</v>
       </c>
       <c r="C319">
-        <v>4552394.123545009</v>
+        <v>4552394.123545007</v>
       </c>
       <c r="D319">
-        <v>7069026.198851388</v>
+        <v>7069026.198851386</v>
       </c>
       <c r="E319">
-        <v>9459521.917840865</v>
+        <v>9459521.917840863</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -5794,16 +5794,16 @@
         <v>319</v>
       </c>
       <c r="B320">
-        <v>3277848.011535787</v>
+        <v>3277848.011535786</v>
       </c>
       <c r="C320">
-        <v>4638690.525016045</v>
+        <v>4638690.525016043</v>
       </c>
       <c r="D320">
-        <v>6785320.203351174</v>
+        <v>6785320.203351175</v>
       </c>
       <c r="E320">
-        <v>8850815.949773397</v>
+        <v>8850815.949773401</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -5811,16 +5811,16 @@
         <v>320</v>
       </c>
       <c r="B321">
-        <v>15692138.89515987</v>
+        <v>15692138.89515988</v>
       </c>
       <c r="C321">
         <v>22019710.69180419</v>
       </c>
       <c r="D321">
-        <v>31587850.86517735</v>
+        <v>31587850.86517736</v>
       </c>
       <c r="E321">
-        <v>40807957.32031818</v>
+        <v>40807957.32031821</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -5837,7 +5837,7 @@
         <v>16473134.61327335</v>
       </c>
       <c r="E322">
-        <v>18704951.67314543</v>
+        <v>18704951.67314544</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -5845,16 +5845,16 @@
         <v>322</v>
       </c>
       <c r="B323">
-        <v>2660007.732528499</v>
+        <v>2660007.732528498</v>
       </c>
       <c r="C323">
-        <v>3996606.221191355</v>
+        <v>3996606.221191354</v>
       </c>
       <c r="D323">
-        <v>6538311.371706042</v>
+        <v>6538311.37170604</v>
       </c>
       <c r="E323">
-        <v>9653753.354890704</v>
+        <v>9653753.354890708</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -5862,16 +5862,16 @@
         <v>323</v>
       </c>
       <c r="B324">
-        <v>2929375.604176954</v>
+        <v>2929375.604176953</v>
       </c>
       <c r="C324">
-        <v>4129826.4285644</v>
+        <v>4129826.428564399</v>
       </c>
       <c r="D324">
-        <v>6408839.859395031</v>
+        <v>6408839.859395029</v>
       </c>
       <c r="E324">
-        <v>8970301.789942689</v>
+        <v>8970301.789942693</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -5882,10 +5882,10 @@
         <v>2457981.828792157</v>
       </c>
       <c r="C325">
-        <v>3818979.278027295</v>
+        <v>3818979.278027294</v>
       </c>
       <c r="D325">
-        <v>6603047.127861547</v>
+        <v>6603047.127861544</v>
       </c>
       <c r="E325">
         <v>10337204.91983872</v>
@@ -5896,16 +5896,16 @@
         <v>325</v>
       </c>
       <c r="B326">
-        <v>5611293.491526364</v>
+        <v>5611293.491526363</v>
       </c>
       <c r="C326">
-        <v>9050366.45026399</v>
+        <v>9050366.450263998</v>
       </c>
       <c r="D326">
         <v>14640498.98559625</v>
       </c>
       <c r="E326">
-        <v>21681123.94566454</v>
+        <v>21681123.94566455</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -5913,13 +5913,13 @@
         <v>326</v>
       </c>
       <c r="B327">
-        <v>2182726.42329507</v>
+        <v>2182726.423295071</v>
       </c>
       <c r="C327">
-        <v>4220771.484492449</v>
+        <v>4220771.484492448</v>
       </c>
       <c r="D327">
-        <v>7461685.735942637</v>
+        <v>7461685.735942634</v>
       </c>
       <c r="E327">
         <v>10951514.25953635</v>
@@ -5933,10 +5933,10 @@
         <v>2491155.157021548</v>
       </c>
       <c r="C328">
-        <v>4220771.484492449</v>
+        <v>4220771.484492448</v>
       </c>
       <c r="D328">
-        <v>7217040.301977304</v>
+        <v>7217040.301977301</v>
       </c>
       <c r="E328">
         <v>10453718.15683015</v>
@@ -5950,13 +5950,13 @@
         <v>22312.65425042891</v>
       </c>
       <c r="C329">
-        <v>35645.1931184441</v>
+        <v>35645.19311844411</v>
       </c>
       <c r="D329">
-        <v>59315.91492930739</v>
+        <v>59315.91492930733</v>
       </c>
       <c r="E329">
-        <v>81620.30654901353</v>
+        <v>81620.30654901352</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -5970,10 +5970,10 @@
         <v>4710682.460371036</v>
       </c>
       <c r="D330">
-        <v>6666588.075555306</v>
+        <v>6666588.075555304</v>
       </c>
       <c r="E330">
-        <v>7632873.574828365</v>
+        <v>7632873.574828364</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -5981,16 +5981,16 @@
         <v>330</v>
       </c>
       <c r="B331">
-        <v>2814019.666171919</v>
+        <v>2814019.666171917</v>
       </c>
       <c r="C331">
-        <v>4347226.645121763</v>
+        <v>4347226.645121762</v>
       </c>
       <c r="D331">
-        <v>6872821.378304633</v>
+        <v>6872821.378304636</v>
       </c>
       <c r="E331">
-        <v>8895847.49226163</v>
+        <v>8895847.492261628</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -5998,10 +5998,10 @@
         <v>331</v>
       </c>
       <c r="B332">
-        <v>6685390.549732275</v>
+        <v>6685390.549732273</v>
       </c>
       <c r="C332">
-        <v>10183485.20476284</v>
+        <v>10183485.20476283</v>
       </c>
       <c r="D332">
         <v>16567233.23010972</v>
@@ -6015,7 +6015,7 @@
         <v>332</v>
       </c>
       <c r="B333">
-        <v>5949808.674341625</v>
+        <v>5949808.674341623</v>
       </c>
       <c r="C333">
         <v>9242067.74477792</v>
@@ -6024,7 +6024,7 @@
         <v>14720156.40707613</v>
       </c>
       <c r="E333">
-        <v>20381665.02831887</v>
+        <v>20381665.02831886</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -6032,7 +6032,7 @@
         <v>333</v>
       </c>
       <c r="B334">
-        <v>12283581.1007184</v>
+        <v>12283581.10071841</v>
       </c>
       <c r="C334">
         <v>17939831.47791037</v>
@@ -6041,7 +6041,7 @@
         <v>27211205.60857239</v>
       </c>
       <c r="E334">
-        <v>35963663.84166336</v>
+        <v>35963663.84166337</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -6049,13 +6049,13 @@
         <v>334</v>
       </c>
       <c r="B335">
-        <v>5095000.24694162</v>
+        <v>5095000.246941618</v>
       </c>
       <c r="C335">
-        <v>8502234.941589663</v>
+        <v>8502234.941589659</v>
       </c>
       <c r="D335">
-        <v>15530468.37263854</v>
+        <v>15530468.37263853</v>
       </c>
       <c r="E335">
         <v>24014813.46978141</v>
@@ -6066,16 +6066,16 @@
         <v>335</v>
       </c>
       <c r="B336">
-        <v>4467482.073331079</v>
+        <v>4467482.073331082</v>
       </c>
       <c r="C336">
-        <v>6134929.365159881</v>
+        <v>6134929.365159882</v>
       </c>
       <c r="D336">
-        <v>9115952.715267986</v>
+        <v>9115952.715267988</v>
       </c>
       <c r="E336">
-        <v>11462407.3859564</v>
+        <v>11462407.38595641</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -6083,16 +6083,16 @@
         <v>336</v>
       </c>
       <c r="B337">
-        <v>4552639.531187216</v>
+        <v>4552639.531187215</v>
       </c>
       <c r="C337">
-        <v>7620200.863817963</v>
+        <v>7620200.86381796</v>
       </c>
       <c r="D337">
-        <v>12699649.52446177</v>
+        <v>12699649.52446178</v>
       </c>
       <c r="E337">
-        <v>17317414.99124717</v>
+        <v>17317414.99124716</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -6103,13 +6103,13 @@
         <v>4253716.623444739</v>
       </c>
       <c r="C338">
-        <v>7448442.208624043</v>
+        <v>7448442.208624038</v>
       </c>
       <c r="D338">
-        <v>13885308.19502252</v>
+        <v>13885308.19502251</v>
       </c>
       <c r="E338">
-        <v>21546102.3947492</v>
+        <v>21546102.39474921</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -6117,16 +6117,16 @@
         <v>338</v>
       </c>
       <c r="B339">
-        <v>4609547.525327057</v>
+        <v>4609547.525327055</v>
       </c>
       <c r="C339">
-        <v>7551755.945879478</v>
+        <v>7551755.945879475</v>
       </c>
       <c r="D339">
         <v>12662187.43146926</v>
       </c>
       <c r="E339">
-        <v>17367903.08160066</v>
+        <v>17367903.08160065</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -6140,7 +6140,7 @@
         <v>3329387.764439942</v>
       </c>
       <c r="D340">
-        <v>5067200.819124754</v>
+        <v>5067200.819124752</v>
       </c>
       <c r="E340">
         <v>5995853.725171339</v>
@@ -6157,7 +6157,7 @@
         <v>2943666.011242632</v>
       </c>
       <c r="D341">
-        <v>5556447.794764386</v>
+        <v>5556447.794764383</v>
       </c>
       <c r="E341">
         <v>8327574.618293526</v>
@@ -6171,7 +6171,7 @@
         <v>561877.8408262837</v>
       </c>
       <c r="C342">
-        <v>773470.3364536695</v>
+        <v>773470.3364536696</v>
       </c>
       <c r="D342">
         <v>1108428.187501931</v>
@@ -6188,7 +6188,7 @@
         <v>546691.9532363841</v>
       </c>
       <c r="C343">
-        <v>749299.3884394923</v>
+        <v>749299.3884394924</v>
       </c>
       <c r="D343">
         <v>1108428.187501931</v>
@@ -6208,7 +6208,7 @@
         <v>3471495.778775794</v>
       </c>
       <c r="D344">
-        <v>4927415.968942002</v>
+        <v>4927415.968942001</v>
       </c>
       <c r="E344">
         <v>5234475.47435593</v>
@@ -6219,16 +6219,16 @@
         <v>344</v>
       </c>
       <c r="B345">
-        <v>623279.3387227437</v>
+        <v>623279.3387227436</v>
       </c>
       <c r="C345">
         <v>1018101.223375197</v>
       </c>
       <c r="D345">
-        <v>1703262.003559783</v>
+        <v>1703262.003559784</v>
       </c>
       <c r="E345">
-        <v>1993691.728370196</v>
+        <v>1993691.728370195</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -6236,16 +6236,16 @@
         <v>345</v>
       </c>
       <c r="B346">
-        <v>657905.968651785</v>
+        <v>657905.9686517848</v>
       </c>
       <c r="C346">
         <v>1002905.682727806</v>
       </c>
       <c r="D346">
-        <v>1673895.417291511</v>
+        <v>1673895.417291512</v>
       </c>
       <c r="E346">
-        <v>1952156.48402915</v>
+        <v>1952156.484029149</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -6253,16 +6253,16 @@
         <v>346</v>
       </c>
       <c r="B347">
-        <v>657905.968651785</v>
+        <v>657905.9686517848</v>
       </c>
       <c r="C347">
         <v>1002905.682727806</v>
       </c>
       <c r="D347">
-        <v>1673895.417291511</v>
+        <v>1673895.417291512</v>
       </c>
       <c r="E347">
-        <v>1952156.48402915</v>
+        <v>1952156.484029149</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -6270,16 +6270,16 @@
         <v>347</v>
       </c>
       <c r="B348">
-        <v>573009.5969781255</v>
+        <v>573009.5969781254</v>
       </c>
       <c r="C348">
-        <v>870315.6180059572</v>
+        <v>870315.6180059571</v>
       </c>
       <c r="D348">
         <v>1378542.385342249</v>
       </c>
       <c r="E348">
-        <v>1694781.326520714</v>
+        <v>1694781.326520713</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -6287,16 +6287,16 @@
         <v>348</v>
       </c>
       <c r="B349">
-        <v>673286.2764492976</v>
+        <v>673286.2764492973</v>
       </c>
       <c r="C349">
-        <v>939024.7457432697</v>
+        <v>939024.7457432696</v>
       </c>
       <c r="D349">
         <v>1304026.580729154</v>
       </c>
       <c r="E349">
-        <v>1395702.268899412</v>
+        <v>1395702.26889941</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -6304,16 +6304,16 @@
         <v>349</v>
       </c>
       <c r="B350">
-        <v>673286.2764492976</v>
+        <v>673286.2764492973</v>
       </c>
       <c r="C350">
-        <v>939024.7457432697</v>
+        <v>939024.7457432696</v>
       </c>
       <c r="D350">
         <v>1304026.580729154</v>
       </c>
       <c r="E350">
-        <v>1395702.268899412</v>
+        <v>1395702.26889941</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -6321,7 +6321,7 @@
         <v>350</v>
       </c>
       <c r="B351">
-        <v>783436.199464199</v>
+        <v>783436.1994641992</v>
       </c>
       <c r="C351">
         <v>1370836.863980219</v>
@@ -6330,7 +6330,7 @@
         <v>2597005.571201685</v>
       </c>
       <c r="E351">
-        <v>3315645.86867176</v>
+        <v>3315645.868671762</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -6338,16 +6338,16 @@
         <v>351</v>
       </c>
       <c r="B352">
-        <v>937325.4529303811</v>
+        <v>937325.4529303813</v>
       </c>
       <c r="C352">
-        <v>1463104.729825041</v>
+        <v>1463104.729825042</v>
       </c>
       <c r="D352">
         <v>2461744.864368264</v>
       </c>
       <c r="E352">
-        <v>2591539.299651491</v>
+        <v>2591539.299651492</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -6355,13 +6355,13 @@
         <v>352</v>
       </c>
       <c r="B353">
-        <v>3932864.917036898</v>
+        <v>3932864.917036896</v>
       </c>
       <c r="C353">
-        <v>5961623.575644144</v>
+        <v>5961623.575644146</v>
       </c>
       <c r="D353">
-        <v>9117383.600691127</v>
+        <v>9117383.600691129</v>
       </c>
       <c r="E353">
         <v>12181173.15252881</v>
@@ -6372,16 +6372,16 @@
         <v>353</v>
       </c>
       <c r="B354">
-        <v>4889666.283212564</v>
+        <v>4889666.283212562</v>
       </c>
       <c r="C354">
-        <v>6261440.560005485</v>
+        <v>6261440.560005483</v>
       </c>
       <c r="D354">
-        <v>8130611.181297717</v>
+        <v>8130611.181297716</v>
       </c>
       <c r="E354">
-        <v>8523756.08440017</v>
+        <v>8523756.084400171</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -6389,13 +6389,13 @@
         <v>354</v>
       </c>
       <c r="B355">
-        <v>5224253.397257968</v>
+        <v>5224253.397257966</v>
       </c>
       <c r="C355">
-        <v>6534856.611763773</v>
+        <v>6534856.611763775</v>
       </c>
       <c r="D355">
-        <v>8372212.82563464</v>
+        <v>8372212.825634642</v>
       </c>
       <c r="E355">
         <v>8897033.331994081</v>
@@ -6406,10 +6406,10 @@
         <v>355</v>
       </c>
       <c r="B356">
-        <v>992375.9418279955</v>
+        <v>992375.9418279956</v>
       </c>
       <c r="C356">
-        <v>1442987.180826562</v>
+        <v>1442987.180826561</v>
       </c>
       <c r="D356">
         <v>2124921.71924572</v>
@@ -6426,7 +6426,7 @@
         <v>1152907.344182524</v>
       </c>
       <c r="C357">
-        <v>1533173.879628222</v>
+        <v>1533173.879628221</v>
       </c>
       <c r="D357">
         <v>2016874.852165429</v>
@@ -6440,16 +6440,16 @@
         <v>357</v>
       </c>
       <c r="B358">
-        <v>1138313.580332112</v>
+        <v>1138313.580332113</v>
       </c>
       <c r="C358">
-        <v>1533173.879628222</v>
+        <v>1533173.879628221</v>
       </c>
       <c r="D358">
         <v>2016874.852165429</v>
       </c>
       <c r="E358">
-        <v>2127199.920378961</v>
+        <v>2127199.920378962</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -6460,10 +6460,10 @@
         <v>388523.3127800821</v>
       </c>
       <c r="C359">
-        <v>727723.227387696</v>
+        <v>727723.2273876963</v>
       </c>
       <c r="D359">
-        <v>1385230.201780328</v>
+        <v>1385230.201780327</v>
       </c>
       <c r="E359">
         <v>1807390.761381577</v>
@@ -6474,10 +6474,10 @@
         <v>359</v>
       </c>
       <c r="B360">
-        <v>508068.9474816459</v>
+        <v>508068.9474816458</v>
       </c>
       <c r="C360">
-        <v>784799.5589475153</v>
+        <v>784799.5589475156</v>
       </c>
       <c r="D360">
         <v>1272150.185308464</v>
@@ -6494,10 +6494,10 @@
         <v>10175208.19980964</v>
       </c>
       <c r="C361">
-        <v>16549479.66450937</v>
+        <v>16549479.66450938</v>
       </c>
       <c r="D361">
-        <v>28920758.8889458</v>
+        <v>28920758.88894581</v>
       </c>
       <c r="E361">
         <v>40840052.62020318</v>
@@ -6508,13 +6508,13 @@
         <v>361</v>
       </c>
       <c r="B362">
-        <v>8912046.712909015</v>
+        <v>8912046.712909017</v>
       </c>
       <c r="C362">
-        <v>14621818.86303417</v>
+        <v>14621818.86303418</v>
       </c>
       <c r="D362">
-        <v>26027103.1809466</v>
+        <v>26027103.18094659</v>
       </c>
       <c r="E362">
         <v>32064556.4865112</v>
@@ -6525,16 +6525,16 @@
         <v>362</v>
       </c>
       <c r="B363">
-        <v>447158.3340436292</v>
+        <v>447158.3340436294</v>
       </c>
       <c r="C363">
-        <v>916002.8473550457</v>
+        <v>916002.8473550456</v>
       </c>
       <c r="D363">
-        <v>2138688.432319128</v>
+        <v>2138688.432319129</v>
       </c>
       <c r="E363">
-        <v>3360229.606383111</v>
+        <v>3360229.60638311</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -6545,13 +6545,13 @@
         <v>2756982.598003535</v>
       </c>
       <c r="C364">
-        <v>3932522.686929726</v>
+        <v>3932522.686929725</v>
       </c>
       <c r="D364">
         <v>6565439.126033675</v>
       </c>
       <c r="E364">
-        <v>9040994.497501481</v>
+        <v>9040994.497501476</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -6559,16 +6559,16 @@
         <v>364</v>
       </c>
       <c r="B365">
-        <v>2639162.828858084</v>
+        <v>2639162.828858085</v>
       </c>
       <c r="C365">
-        <v>3798077.466863752</v>
+        <v>3798077.466863751</v>
       </c>
       <c r="D365">
         <v>6622529.901042663</v>
       </c>
       <c r="E365">
-        <v>9606056.653595323</v>
+        <v>9606056.653595317</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -6576,7 +6576,7 @@
         <v>365</v>
       </c>
       <c r="B366">
-        <v>732847.3687335373</v>
+        <v>732847.3687335372</v>
       </c>
       <c r="C366">
         <v>1043736.892139639</v>
@@ -6593,10 +6593,10 @@
         <v>366</v>
       </c>
       <c r="B367">
-        <v>814274.8541483748</v>
+        <v>814274.8541483745</v>
       </c>
       <c r="C367">
-        <v>1069193.889508899</v>
+        <v>1069193.889508898</v>
       </c>
       <c r="D367">
         <v>1720346.781992984</v>
@@ -6627,7 +6627,7 @@
         <v>368</v>
       </c>
       <c r="B369">
-        <v>895702.3395632122</v>
+        <v>895702.339563212</v>
       </c>
       <c r="C369">
         <v>1094650.886878158</v>
@@ -6647,13 +6647,13 @@
         <v>273774.3872782263</v>
       </c>
       <c r="C370">
-        <v>540313.0948477429</v>
+        <v>540313.0948477431</v>
       </c>
       <c r="D370">
-        <v>1204816.778624996</v>
+        <v>1204816.778624997</v>
       </c>
       <c r="E370">
-        <v>1798260.333433327</v>
+        <v>1798260.333433326</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -6664,13 +6664,13 @@
         <v>342217.9840977828</v>
       </c>
       <c r="C371">
-        <v>575172.0041927586</v>
+        <v>575172.0041927587</v>
       </c>
       <c r="D371">
         <v>1121725.966306031</v>
       </c>
       <c r="E371">
-        <v>1332044.691432094</v>
+        <v>1332044.691432093</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -6681,7 +6681,7 @@
         <v>316551.6352904491</v>
       </c>
       <c r="C372">
-        <v>557742.5495202508</v>
+        <v>557742.5495202509</v>
       </c>
       <c r="D372">
         <v>1163271.372465514</v>
@@ -6698,10 +6698,10 @@
         <v>4230418.883951348</v>
       </c>
       <c r="C373">
-        <v>6737873.35958851</v>
+        <v>6737873.359588512</v>
       </c>
       <c r="D373">
-        <v>10862991.15773045</v>
+        <v>10862991.15773044</v>
       </c>
       <c r="E373">
         <v>15010767.67329499</v>
@@ -6715,10 +6715,10 @@
         <v>2760349.496947103</v>
       </c>
       <c r="C374">
-        <v>4880868.327114942</v>
+        <v>4880868.327114943</v>
       </c>
       <c r="D374">
-        <v>8390710.314536123</v>
+        <v>8390710.314536121</v>
       </c>
       <c r="E374">
         <v>12080072.27842858</v>
@@ -6732,10 +6732,10 @@
         <v>5845256.19986826</v>
       </c>
       <c r="C375">
-        <v>7734803.601568444</v>
+        <v>7734803.601568445</v>
       </c>
       <c r="D375">
-        <v>9918383.23097128</v>
+        <v>9918383.230971273</v>
       </c>
       <c r="E375">
         <v>10306932.64203204</v>
@@ -6746,16 +6746,16 @@
         <v>375</v>
       </c>
       <c r="B376">
-        <v>3753880.422802637</v>
+        <v>3753880.422802636</v>
       </c>
       <c r="C376">
-        <v>5030272.033677459</v>
+        <v>5030272.033677458</v>
       </c>
       <c r="D376">
-        <v>6984496.023682922</v>
+        <v>6984496.023682925</v>
       </c>
       <c r="E376">
-        <v>7859763.79279682</v>
+        <v>7859763.792796818</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -6763,16 +6763,16 @@
         <v>376</v>
       </c>
       <c r="B377">
-        <v>3753880.422802637</v>
+        <v>3753880.422802636</v>
       </c>
       <c r="C377">
-        <v>5030272.033677459</v>
+        <v>5030272.033677458</v>
       </c>
       <c r="D377">
-        <v>6984496.023682922</v>
+        <v>6984496.023682925</v>
       </c>
       <c r="E377">
-        <v>7859763.79279682</v>
+        <v>7859763.792796818</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -6780,16 +6780,16 @@
         <v>377</v>
       </c>
       <c r="B378">
-        <v>2903077.915647207</v>
+        <v>2903077.915647206</v>
       </c>
       <c r="C378">
-        <v>4017734.304129515</v>
+        <v>4017734.304129514</v>
       </c>
       <c r="D378">
-        <v>5731144.453926933</v>
+        <v>5731144.453926935</v>
       </c>
       <c r="E378">
-        <v>7435689.437699298</v>
+        <v>7435689.437699297</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -6797,16 +6797,16 @@
         <v>378</v>
       </c>
       <c r="B379">
-        <v>2812356.730783232</v>
+        <v>2812356.730783231</v>
       </c>
       <c r="C379">
         <v>4140726.170582459</v>
       </c>
       <c r="D379">
-        <v>5788455.898466202</v>
+        <v>5788455.898466204</v>
       </c>
       <c r="E379">
-        <v>7362068.750197326</v>
+        <v>7362068.750197324</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -6814,16 +6814,16 @@
         <v>379</v>
       </c>
       <c r="B380">
-        <v>3901010.949150934</v>
+        <v>3901010.949150933</v>
       </c>
       <c r="C380">
-        <v>4345712.6146707</v>
+        <v>4345712.614670699</v>
       </c>
       <c r="D380">
-        <v>5215341.453073509</v>
+        <v>5215341.45307351</v>
       </c>
       <c r="E380">
-        <v>5521551.562647994</v>
+        <v>5521551.562647993</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -6831,16 +6831,16 @@
         <v>380</v>
       </c>
       <c r="B381">
-        <v>2903077.915647207</v>
+        <v>2903077.915647206</v>
       </c>
       <c r="C381">
-        <v>4017734.304129515</v>
+        <v>4017734.304129514</v>
       </c>
       <c r="D381">
-        <v>5731144.453926933</v>
+        <v>5731144.453926935</v>
       </c>
       <c r="E381">
-        <v>7435689.437699298</v>
+        <v>7435689.437699297</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -6854,10 +6854,10 @@
         <v>2297370.085254265</v>
       </c>
       <c r="D382">
-        <v>2855793.209925034</v>
+        <v>2855793.209925035</v>
       </c>
       <c r="E382">
-        <v>3049816.070449339</v>
+        <v>3049816.070449338</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -6868,13 +6868,13 @@
         <v>4122883.503044147</v>
       </c>
       <c r="C383">
-        <v>6800985.66258198</v>
+        <v>6800985.662581984</v>
       </c>
       <c r="D383">
         <v>11090063.116637</v>
       </c>
       <c r="E383">
-        <v>15166886.05718736</v>
+        <v>15166886.05718737</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -6885,13 +6885,13 @@
         <v>6803337.994015658</v>
       </c>
       <c r="C384">
-        <v>8735322.797521992</v>
+        <v>8735322.797521995</v>
       </c>
       <c r="D384">
-        <v>11917694.21400305</v>
+        <v>11917694.21400306</v>
       </c>
       <c r="E384">
-        <v>13289971.92063871</v>
+        <v>13289971.9206387</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -6902,13 +6902,13 @@
         <v>1197007.681940482</v>
       </c>
       <c r="C385">
-        <v>1734611.616110773</v>
+        <v>1734611.616110774</v>
       </c>
       <c r="D385">
         <v>2509939.604033961</v>
       </c>
       <c r="E385">
-        <v>3280839.513042369</v>
+        <v>3280839.51304237</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -6916,16 +6916,16 @@
         <v>385</v>
       </c>
       <c r="B386">
-        <v>1135680.669530297</v>
+        <v>1135680.669530296</v>
       </c>
       <c r="C386">
-        <v>1954893.619012339</v>
+        <v>1954893.61901234</v>
       </c>
       <c r="D386">
-        <v>3401624.033702757</v>
+        <v>3401624.03370276</v>
       </c>
       <c r="E386">
-        <v>4513114.998475494</v>
+        <v>4513114.998475497</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -6933,16 +6933,16 @@
         <v>386</v>
       </c>
       <c r="B387">
-        <v>1301877.840681072</v>
+        <v>1301877.840681071</v>
       </c>
       <c r="C387">
-        <v>2028202.129725302</v>
+        <v>2028202.129725303</v>
       </c>
       <c r="D387">
-        <v>3310914.059470684</v>
+        <v>3310914.059470687</v>
       </c>
       <c r="E387">
-        <v>3924447.824761299</v>
+        <v>3924447.824761301</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -6950,10 +6950,10 @@
         <v>387</v>
       </c>
       <c r="B388">
-        <v>2115953.568065336</v>
+        <v>2115953.568065337</v>
       </c>
       <c r="C388">
-        <v>3206076.01537496</v>
+        <v>3206076.015374959</v>
       </c>
       <c r="D388">
         <v>7302003.820114223</v>
@@ -6973,10 +6973,10 @@
         <v>273876.3672512834</v>
       </c>
       <c r="D389">
-        <v>702536.231915161</v>
+        <v>702536.2319151611</v>
       </c>
       <c r="E389">
-        <v>995545.0015896969</v>
+        <v>995545.0015896978</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -6990,10 +6990,10 @@
         <v>282435.003727886</v>
       </c>
       <c r="D390">
-        <v>702536.231915161</v>
+        <v>702536.2319151611</v>
       </c>
       <c r="E390">
-        <v>950292.9560628925</v>
+        <v>950292.9560628934</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -7001,10 +7001,10 @@
         <v>390</v>
       </c>
       <c r="B391">
-        <v>2115953.568065336</v>
+        <v>2115953.568065337</v>
       </c>
       <c r="C391">
-        <v>3206076.01537496</v>
+        <v>3206076.015374959</v>
       </c>
       <c r="D391">
         <v>7302003.820114223</v>
@@ -7024,10 +7024,10 @@
         <v>290993.6402044886</v>
       </c>
       <c r="D392">
-        <v>677445.6522039052</v>
+        <v>677445.6522039054</v>
       </c>
       <c r="E392">
-        <v>814536.8194824792</v>
+        <v>814536.8194824801</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -7035,7 +7035,7 @@
         <v>392</v>
       </c>
       <c r="B393">
-        <v>408536.1842365597</v>
+        <v>408536.1842365598</v>
       </c>
       <c r="C393">
         <v>615803.2452828994</v>
@@ -7069,16 +7069,16 @@
         <v>394</v>
       </c>
       <c r="B395">
-        <v>278818.6418186729</v>
+        <v>278818.6418186731</v>
       </c>
       <c r="C395">
-        <v>506935.532724608</v>
+        <v>506935.5327246079</v>
       </c>
       <c r="D395">
         <v>1316510.795911924</v>
       </c>
       <c r="E395">
-        <v>2219227.325367501</v>
+        <v>2219227.325367502</v>
       </c>
     </row>
     <row r="396" spans="1:5">
@@ -7086,16 +7086,16 @@
         <v>395</v>
       </c>
       <c r="B396">
-        <v>350635.5647113614</v>
+        <v>350635.5647113617</v>
       </c>
       <c r="C396">
-        <v>553020.5811541178</v>
+        <v>553020.5811541177</v>
       </c>
       <c r="D396">
         <v>1235494.746932729</v>
       </c>
       <c r="E396">
-        <v>1699095.920984493</v>
+        <v>1699095.920984494</v>
       </c>
     </row>
     <row r="397" spans="1:5">
@@ -7103,16 +7103,16 @@
         <v>396</v>
       </c>
       <c r="B397">
-        <v>119532.7206930311</v>
+        <v>119532.720693031</v>
       </c>
       <c r="C397">
-        <v>193217.814087172</v>
+        <v>193217.8140871718</v>
       </c>
       <c r="D397">
         <v>468274.1110580377</v>
       </c>
       <c r="E397">
-        <v>735067.0181429242</v>
+        <v>735067.0181429236</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -7120,16 +7120,16 @@
         <v>397</v>
       </c>
       <c r="B398">
-        <v>119532.7206930311</v>
+        <v>119532.720693031</v>
       </c>
       <c r="C398">
-        <v>193217.814087172</v>
+        <v>193217.8140871718</v>
       </c>
       <c r="D398">
         <v>468274.1110580377</v>
       </c>
       <c r="E398">
-        <v>735067.0181429242</v>
+        <v>735067.0181429236</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -7140,13 +7140,13 @@
         <v>1140578.893762898</v>
       </c>
       <c r="C399">
-        <v>2118802.748918088</v>
+        <v>2118802.748918089</v>
       </c>
       <c r="D399">
-        <v>6498176.520267793</v>
+        <v>6498176.520267788</v>
       </c>
       <c r="E399">
-        <v>11346227.85338418</v>
+        <v>11346227.85338419</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -7157,13 +7157,13 @@
         <v>1193423.699264285</v>
       </c>
       <c r="C400">
-        <v>1898532.911986856</v>
+        <v>1898532.911986857</v>
       </c>
       <c r="D400">
-        <v>5244790.843349279</v>
+        <v>5244790.843349276</v>
       </c>
       <c r="E400">
-        <v>7710289.595062172</v>
+        <v>7710289.595062166</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -7177,7 +7177,7 @@
         <v>2201893.052797229</v>
       </c>
       <c r="D401">
-        <v>6286853.706600548</v>
+        <v>6286853.706600543</v>
       </c>
       <c r="E401">
         <v>10037047.71645524</v>
@@ -7188,13 +7188,13 @@
         <v>401</v>
       </c>
       <c r="B402">
-        <v>93432.12112080916</v>
+        <v>93432.12112080914</v>
       </c>
       <c r="C402">
         <v>159166.6752008926</v>
       </c>
       <c r="D402">
-        <v>496184.3278759364</v>
+        <v>496184.3278759365</v>
       </c>
       <c r="E402">
         <v>838876.7048674622</v>
@@ -7205,16 +7205,16 @@
         <v>402</v>
       </c>
       <c r="B403">
-        <v>1135207.909056272</v>
+        <v>1135207.909056271</v>
       </c>
       <c r="C403">
         <v>1874801.250587021</v>
       </c>
       <c r="D403">
-        <v>5348648.087772037</v>
+        <v>5348648.087772034</v>
       </c>
       <c r="E403">
-        <v>8240372.004722696</v>
+        <v>8240372.004722691</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -7231,7 +7231,7 @@
         <v>1299612.947060115</v>
       </c>
       <c r="E404">
-        <v>2131920.861844972</v>
+        <v>2131920.861844973</v>
       </c>
     </row>
     <row r="405" spans="1:5">
@@ -7239,7 +7239,7 @@
         <v>404</v>
       </c>
       <c r="B405">
-        <v>259602.9119668</v>
+        <v>259602.9119667999</v>
       </c>
       <c r="C405">
         <v>422834.9870618631</v>
@@ -7265,7 +7265,7 @@
         <v>1299612.947060115</v>
       </c>
       <c r="E406">
-        <v>2131920.861844972</v>
+        <v>2131920.861844973</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -7273,16 +7273,16 @@
         <v>406</v>
       </c>
       <c r="B407">
-        <v>199387.0936341931</v>
+        <v>199387.093634193</v>
       </c>
       <c r="C407">
-        <v>369356.9903532151</v>
+        <v>369356.990353215</v>
       </c>
       <c r="D407">
         <v>1331675.369284077</v>
       </c>
       <c r="E407">
-        <v>2559843.122840989</v>
+        <v>2559843.122840988</v>
       </c>
     </row>
     <row r="408" spans="1:5">
@@ -7293,13 +7293,13 @@
         <v>259519.709174664</v>
       </c>
       <c r="C408">
-        <v>405101.2152261069</v>
+        <v>405101.2152261068</v>
       </c>
       <c r="D408">
         <v>1245760.829330265</v>
       </c>
       <c r="E408">
-        <v>1950356.665021706</v>
+        <v>1950356.665021705</v>
       </c>
     </row>
     <row r="409" spans="1:5">
@@ -7310,13 +7310,13 @@
         <v>215211.4661448433</v>
       </c>
       <c r="C409">
-        <v>375314.3611653638</v>
+        <v>375314.3611653637</v>
       </c>
       <c r="D409">
         <v>1310196.734295624</v>
       </c>
       <c r="E409">
-        <v>2437945.831277132</v>
+        <v>2437945.831277131</v>
       </c>
     </row>
     <row r="410" spans="1:5">
@@ -7324,13 +7324,13 @@
         <v>409</v>
       </c>
       <c r="B410">
-        <v>1822383.525401168</v>
+        <v>1822383.525401167</v>
       </c>
       <c r="C410">
-        <v>3329020.284332362</v>
+        <v>3329020.284332363</v>
       </c>
       <c r="D410">
-        <v>7516212.756228978</v>
+        <v>7516212.756228985</v>
       </c>
       <c r="E410">
         <v>11892611.86642736</v>
@@ -7341,13 +7341,13 @@
         <v>410</v>
       </c>
       <c r="B411">
-        <v>329096.8978180254</v>
+        <v>329096.8978180255</v>
       </c>
       <c r="C411">
-        <v>776346.0312176608</v>
+        <v>776346.0312176605</v>
       </c>
       <c r="D411">
-        <v>2461690.806578612</v>
+        <v>2461690.80657861</v>
       </c>
       <c r="E411">
         <v>5161247.819117323</v>
@@ -7358,16 +7358,16 @@
         <v>411</v>
       </c>
       <c r="B412">
-        <v>564166.1105451863</v>
+        <v>564166.1105451866</v>
       </c>
       <c r="C412">
-        <v>952122.4911159991</v>
+        <v>952122.4911159988</v>
       </c>
       <c r="D412">
-        <v>2204499.229771891</v>
+        <v>2204499.22977189</v>
       </c>
       <c r="E412">
-        <v>3357920.267859464</v>
+        <v>3357920.267859463</v>
       </c>
     </row>
     <row r="413" spans="1:5">
@@ -7381,10 +7381,10 @@
         <v>2138668.581904445</v>
       </c>
       <c r="D413">
-        <v>4866122.606592897</v>
+        <v>4866122.606592898</v>
       </c>
       <c r="E413">
-        <v>6704345.739595252</v>
+        <v>6704345.739595246</v>
       </c>
     </row>
     <row r="414" spans="1:5">
@@ -7392,13 +7392,13 @@
         <v>413</v>
       </c>
       <c r="B414">
-        <v>1822383.525401168</v>
+        <v>1822383.525401167</v>
       </c>
       <c r="C414">
-        <v>3329020.284332362</v>
+        <v>3329020.284332363</v>
       </c>
       <c r="D414">
-        <v>7516212.756228978</v>
+        <v>7516212.756228985</v>
       </c>
       <c r="E414">
         <v>11892611.86642736</v>
@@ -7409,16 +7409,16 @@
         <v>414</v>
       </c>
       <c r="B415">
-        <v>698487.9218348712</v>
+        <v>698487.9218348713</v>
       </c>
       <c r="C415">
-        <v>1178503.030727938</v>
+        <v>1178503.030727937</v>
       </c>
       <c r="D415">
-        <v>2565461.431136643</v>
+        <v>2565461.431136644</v>
       </c>
       <c r="E415">
-        <v>3783241.501293004</v>
+        <v>3783241.501293002</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -7426,16 +7426,16 @@
         <v>415</v>
       </c>
       <c r="B416">
-        <v>789200.638956283</v>
+        <v>789200.6389562832</v>
       </c>
       <c r="C416">
         <v>1261496.201905961</v>
       </c>
       <c r="D416">
-        <v>2485290.761413623</v>
+        <v>2485290.761413625</v>
       </c>
       <c r="E416">
-        <v>3119514.922118793</v>
+        <v>3119514.922118791</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -7446,10 +7446,10 @@
         <v>125575.3276503735</v>
       </c>
       <c r="C417">
-        <v>222209.7411948526</v>
+        <v>222209.7411948527</v>
       </c>
       <c r="D417">
-        <v>610444.073602164</v>
+        <v>610444.0736021639</v>
       </c>
       <c r="E417">
         <v>1044750.469534565</v>
@@ -7463,13 +7463,13 @@
         <v>150690.3931804482</v>
       </c>
       <c r="C418">
-        <v>242410.626758021</v>
+        <v>242410.6267580211</v>
       </c>
       <c r="D418">
-        <v>579921.8699220559</v>
+        <v>579921.8699220557</v>
       </c>
       <c r="E418">
-        <v>769816.1354465217</v>
+        <v>769816.1354465215</v>
       </c>
     </row>
     <row r="419" spans="1:5">
@@ -7483,10 +7483,10 @@
         <v>688845.9116929768</v>
       </c>
       <c r="D419">
-        <v>1430943.57912004</v>
+        <v>1430943.579120041</v>
       </c>
       <c r="E419">
-        <v>2322418.155766075</v>
+        <v>2322418.155766076</v>
       </c>
     </row>
     <row r="420" spans="1:5">
@@ -7500,10 +7500,10 @@
         <v>688845.9116929768</v>
       </c>
       <c r="D420">
-        <v>1430943.57912004</v>
+        <v>1430943.579120041</v>
       </c>
       <c r="E420">
-        <v>2322418.155766075</v>
+        <v>2322418.155766076</v>
       </c>
     </row>
     <row r="421" spans="1:5">
@@ -7514,13 +7514,13 @@
         <v>395450.5628096843</v>
       </c>
       <c r="C421">
-        <v>669113.9008298721</v>
+        <v>669113.9008298726</v>
       </c>
       <c r="D421">
-        <v>1388690.868926293</v>
+        <v>1388690.868926294</v>
       </c>
       <c r="E421">
-        <v>2255524.376807908</v>
+        <v>2255524.376807907</v>
       </c>
     </row>
     <row r="422" spans="1:5">
@@ -7531,13 +7531,13 @@
         <v>395450.5628096843</v>
       </c>
       <c r="C422">
-        <v>669113.9008298721</v>
+        <v>669113.9008298726</v>
       </c>
       <c r="D422">
-        <v>1388690.868926293</v>
+        <v>1388690.868926294</v>
       </c>
       <c r="E422">
-        <v>2255524.376807908</v>
+        <v>2255524.376807907</v>
       </c>
     </row>
     <row r="423" spans="1:5">
@@ -7551,10 +7551,10 @@
         <v>688845.9116929768</v>
       </c>
       <c r="D423">
-        <v>1430943.57912004</v>
+        <v>1430943.579120041</v>
       </c>
       <c r="E423">
-        <v>2322418.155766075</v>
+        <v>2322418.155766076</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -7568,10 +7568,10 @@
         <v>688845.9116929768</v>
       </c>
       <c r="D424">
-        <v>1430943.57912004</v>
+        <v>1430943.579120041</v>
       </c>
       <c r="E424">
-        <v>2322418.155766075</v>
+        <v>2322418.155766076</v>
       </c>
     </row>
     <row r="425" spans="1:5">
@@ -7582,13 +7582,13 @@
         <v>395450.5628096843</v>
       </c>
       <c r="C425">
-        <v>669113.9008298721</v>
+        <v>669113.9008298726</v>
       </c>
       <c r="D425">
-        <v>1388690.868926293</v>
+        <v>1388690.868926294</v>
       </c>
       <c r="E425">
-        <v>2255524.376807908</v>
+        <v>2255524.376807907</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -7602,10 +7602,10 @@
         <v>688845.9116929768</v>
       </c>
       <c r="D426">
-        <v>1430943.57912004</v>
+        <v>1430943.579120041</v>
       </c>
       <c r="E426">
-        <v>2322418.155766075</v>
+        <v>2322418.155766076</v>
       </c>
     </row>
     <row r="427" spans="1:5">
@@ -7619,10 +7619,10 @@
         <v>688845.9116929768</v>
       </c>
       <c r="D427">
-        <v>1430943.57912004</v>
+        <v>1430943.579120041</v>
       </c>
       <c r="E427">
-        <v>2322418.155766075</v>
+        <v>2322418.155766076</v>
       </c>
     </row>
     <row r="428" spans="1:5">
@@ -7636,10 +7636,10 @@
         <v>688845.9116929768</v>
       </c>
       <c r="D428">
-        <v>1430943.57912004</v>
+        <v>1430943.579120041</v>
       </c>
       <c r="E428">
-        <v>2322418.155766075</v>
+        <v>2322418.155766076</v>
       </c>
     </row>
     <row r="429" spans="1:5">
@@ -7653,10 +7653,10 @@
         <v>688845.9116929768</v>
       </c>
       <c r="D429">
-        <v>1430943.57912004</v>
+        <v>1430943.579120041</v>
       </c>
       <c r="E429">
-        <v>2322418.155766075</v>
+        <v>2322418.155766076</v>
       </c>
     </row>
     <row r="430" spans="1:5">
@@ -7670,10 +7670,10 @@
         <v>688845.9116929768</v>
       </c>
       <c r="D430">
-        <v>1430943.57912004</v>
+        <v>1430943.579120041</v>
       </c>
       <c r="E430">
-        <v>2322418.155766075</v>
+        <v>2322418.155766076</v>
       </c>
     </row>
     <row r="431" spans="1:5">
@@ -7684,13 +7684,13 @@
         <v>395450.5628096843</v>
       </c>
       <c r="C431">
-        <v>669113.9008298721</v>
+        <v>669113.9008298726</v>
       </c>
       <c r="D431">
-        <v>1388690.868926293</v>
+        <v>1388690.868926294</v>
       </c>
       <c r="E431">
-        <v>2255524.376807908</v>
+        <v>2255524.376807907</v>
       </c>
     </row>
     <row r="432" spans="1:5">
@@ -7704,10 +7704,10 @@
         <v>688845.9116929768</v>
       </c>
       <c r="D432">
-        <v>1430943.57912004</v>
+        <v>1430943.579120041</v>
       </c>
       <c r="E432">
-        <v>2322418.155766075</v>
+        <v>2322418.155766076</v>
       </c>
     </row>
     <row r="433" spans="1:5">
@@ -7721,10 +7721,10 @@
         <v>688845.9116929768</v>
       </c>
       <c r="D433">
-        <v>1430943.57912004</v>
+        <v>1430943.579120041</v>
       </c>
       <c r="E433">
-        <v>2322418.155766075</v>
+        <v>2322418.155766076</v>
       </c>
     </row>
     <row r="434" spans="1:5">
@@ -7732,16 +7732,16 @@
         <v>433</v>
       </c>
       <c r="B434">
-        <v>441565.7831997748</v>
+        <v>441565.7831997749</v>
       </c>
       <c r="C434">
-        <v>777300.4714353995</v>
+        <v>777300.4714353993</v>
       </c>
       <c r="D434">
         <v>1835419.078280965</v>
       </c>
       <c r="E434">
-        <v>2972196.193173302</v>
+        <v>2972196.1931733</v>
       </c>
     </row>
     <row r="435" spans="1:5">
@@ -7755,7 +7755,7 @@
         <v>721648.097964071</v>
       </c>
       <c r="D435">
-        <v>1359396.400164038</v>
+        <v>1359396.400164039</v>
       </c>
       <c r="E435">
         <v>1683753.162930405</v>
@@ -7769,10 +7769,10 @@
         <v>148826.004184096</v>
       </c>
       <c r="C436">
-        <v>282413.9741843058</v>
+        <v>282413.9741843057</v>
       </c>
       <c r="D436">
-        <v>670113.6977186701</v>
+        <v>670113.6977186709</v>
       </c>
       <c r="E436">
         <v>1001737.199906001</v>
@@ -7786,10 +7786,10 @@
         <v>119045.7105419521</v>
       </c>
       <c r="C437">
-        <v>203856.4481100491</v>
+        <v>203856.448110049</v>
       </c>
       <c r="D437">
-        <v>492904.1632030276</v>
+        <v>492904.1632030277</v>
       </c>
       <c r="E437">
         <v>755030.7717257661</v>
@@ -7803,10 +7803,10 @@
         <v>119045.7105419521</v>
       </c>
       <c r="C438">
-        <v>203856.4481100491</v>
+        <v>203856.448110049</v>
       </c>
       <c r="D438">
-        <v>492904.1632030276</v>
+        <v>492904.1632030277</v>
       </c>
       <c r="E438">
         <v>755030.7717257661</v>
@@ -7820,10 +7820,10 @@
         <v>119045.7105419521</v>
       </c>
       <c r="C439">
-        <v>203856.4481100491</v>
+        <v>203856.448110049</v>
       </c>
       <c r="D439">
-        <v>492904.1632030276</v>
+        <v>492904.1632030277</v>
       </c>
       <c r="E439">
         <v>755030.7717257661</v>
@@ -7837,10 +7837,10 @@
         <v>119045.7105419521</v>
       </c>
       <c r="C440">
-        <v>203856.4481100491</v>
+        <v>203856.448110049</v>
       </c>
       <c r="D440">
-        <v>492904.1632030276</v>
+        <v>492904.1632030277</v>
       </c>
       <c r="E440">
         <v>755030.7717257661</v>
@@ -7854,10 +7854,10 @@
         <v>119045.7105419521</v>
       </c>
       <c r="C441">
-        <v>203856.4481100491</v>
+        <v>203856.448110049</v>
       </c>
       <c r="D441">
-        <v>492904.1632030276</v>
+        <v>492904.1632030277</v>
       </c>
       <c r="E441">
         <v>755030.7717257661</v>
@@ -7871,10 +7871,10 @@
         <v>119045.7105419521</v>
       </c>
       <c r="C442">
-        <v>203856.4481100491</v>
+        <v>203856.448110049</v>
       </c>
       <c r="D442">
-        <v>492904.1632030276</v>
+        <v>492904.1632030277</v>
       </c>
       <c r="E442">
         <v>755030.7717257661</v>
@@ -7888,10 +7888,10 @@
         <v>119045.7105419521</v>
       </c>
       <c r="C443">
-        <v>203856.4481100491</v>
+        <v>203856.448110049</v>
       </c>
       <c r="D443">
-        <v>492904.1632030276</v>
+        <v>492904.1632030277</v>
       </c>
       <c r="E443">
         <v>755030.7717257661</v>
@@ -7905,10 +7905,10 @@
         <v>119045.7105419521</v>
       </c>
       <c r="C444">
-        <v>203856.4481100491</v>
+        <v>203856.448110049</v>
       </c>
       <c r="D444">
-        <v>492904.1632030276</v>
+        <v>492904.1632030277</v>
       </c>
       <c r="E444">
         <v>755030.7717257661</v>
@@ -7922,10 +7922,10 @@
         <v>119045.7105419521</v>
       </c>
       <c r="C445">
-        <v>203856.4481100491</v>
+        <v>203856.448110049</v>
       </c>
       <c r="D445">
-        <v>492904.1632030276</v>
+        <v>492904.1632030277</v>
       </c>
       <c r="E445">
         <v>755030.7717257661</v>
@@ -7939,10 +7939,10 @@
         <v>119045.7105419521</v>
       </c>
       <c r="C446">
-        <v>203856.4481100491</v>
+        <v>203856.448110049</v>
       </c>
       <c r="D446">
-        <v>492904.1632030276</v>
+        <v>492904.1632030277</v>
       </c>
       <c r="E446">
         <v>755030.7717257661</v>
@@ -7956,10 +7956,10 @@
         <v>119045.7105419521</v>
       </c>
       <c r="C447">
-        <v>203856.4481100491</v>
+        <v>203856.448110049</v>
       </c>
       <c r="D447">
-        <v>492904.1632030276</v>
+        <v>492904.1632030277</v>
       </c>
       <c r="E447">
         <v>755030.7717257661</v>
@@ -7970,16 +7970,16 @@
         <v>447</v>
       </c>
       <c r="B448">
-        <v>257860.3655918314</v>
+        <v>257860.3655918313</v>
       </c>
       <c r="C448">
-        <v>374988.0960598427</v>
+        <v>374988.0960598426</v>
       </c>
       <c r="D448">
-        <v>703187.4953068242</v>
+        <v>703187.4953068246</v>
       </c>
       <c r="E448">
-        <v>1092780.866198288</v>
+        <v>1092780.866198289</v>
       </c>
     </row>
     <row r="449" spans="1:5">
@@ -7987,16 +7987,16 @@
         <v>448</v>
       </c>
       <c r="B449">
-        <v>257860.3655918314</v>
+        <v>257860.3655918313</v>
       </c>
       <c r="C449">
-        <v>374988.0960598427</v>
+        <v>374988.0960598426</v>
       </c>
       <c r="D449">
-        <v>703187.4953068242</v>
+        <v>703187.4953068246</v>
       </c>
       <c r="E449">
-        <v>1092780.866198288</v>
+        <v>1092780.866198289</v>
       </c>
     </row>
     <row r="450" spans="1:5">
@@ -8004,16 +8004,16 @@
         <v>449</v>
       </c>
       <c r="B450">
-        <v>257860.3655918314</v>
+        <v>257860.3655918313</v>
       </c>
       <c r="C450">
-        <v>374988.0960598427</v>
+        <v>374988.0960598426</v>
       </c>
       <c r="D450">
-        <v>703187.4953068242</v>
+        <v>703187.4953068246</v>
       </c>
       <c r="E450">
-        <v>1092780.866198288</v>
+        <v>1092780.866198289</v>
       </c>
     </row>
     <row r="451" spans="1:5">
@@ -8021,16 +8021,16 @@
         <v>450</v>
       </c>
       <c r="B451">
-        <v>257860.3655918314</v>
+        <v>257860.3655918313</v>
       </c>
       <c r="C451">
-        <v>374988.0960598427</v>
+        <v>374988.0960598426</v>
       </c>
       <c r="D451">
-        <v>703187.4953068242</v>
+        <v>703187.4953068246</v>
       </c>
       <c r="E451">
-        <v>1092780.866198288</v>
+        <v>1092780.866198289</v>
       </c>
     </row>
     <row r="452" spans="1:5">
@@ -8038,16 +8038,16 @@
         <v>451</v>
       </c>
       <c r="B452">
-        <v>257860.3655918314</v>
+        <v>257860.3655918313</v>
       </c>
       <c r="C452">
-        <v>374988.0960598427</v>
+        <v>374988.0960598426</v>
       </c>
       <c r="D452">
-        <v>703187.4953068242</v>
+        <v>703187.4953068246</v>
       </c>
       <c r="E452">
-        <v>1092780.866198288</v>
+        <v>1092780.866198289</v>
       </c>
     </row>
     <row r="453" spans="1:5">
@@ -8061,10 +8061,10 @@
         <v>333322.7520531935</v>
       </c>
       <c r="D453">
-        <v>785915.4359311565</v>
+        <v>785915.4359311569</v>
       </c>
       <c r="E453">
-        <v>1542749.458162289</v>
+        <v>1542749.45816229</v>
       </c>
     </row>
     <row r="454" spans="1:5">
@@ -8075,7 +8075,7 @@
         <v>511531.3422689592</v>
       </c>
       <c r="C454">
-        <v>753350.0768272128</v>
+        <v>753350.0768272131</v>
       </c>
       <c r="D454">
         <v>1470432.00677915</v>
@@ -8092,7 +8092,7 @@
         <v>511531.3422689592</v>
       </c>
       <c r="C455">
-        <v>753350.0768272128</v>
+        <v>753350.0768272131</v>
       </c>
       <c r="D455">
         <v>1470432.00677915</v>
@@ -8109,7 +8109,7 @@
         <v>511531.3422689592</v>
       </c>
       <c r="C456">
-        <v>753350.0768272128</v>
+        <v>753350.0768272131</v>
       </c>
       <c r="D456">
         <v>1470432.00677915</v>
@@ -8126,7 +8126,7 @@
         <v>511531.3422689592</v>
       </c>
       <c r="C457">
-        <v>753350.0768272128</v>
+        <v>753350.0768272131</v>
       </c>
       <c r="D457">
         <v>1470432.00677915</v>
@@ -8143,7 +8143,7 @@
         <v>511531.3422689592</v>
       </c>
       <c r="C458">
-        <v>753350.0768272128</v>
+        <v>753350.0768272131</v>
       </c>
       <c r="D458">
         <v>1470432.00677915</v>
@@ -8157,10 +8157,10 @@
         <v>458</v>
       </c>
       <c r="B459">
-        <v>588261.0436093031</v>
+        <v>588261.043609303</v>
       </c>
       <c r="C459">
-        <v>812825.0828925192</v>
+        <v>812825.0828925193</v>
       </c>
       <c r="D459">
         <v>1390949.195601899</v>
@@ -8177,7 +8177,7 @@
         <v>511531.3422689592</v>
       </c>
       <c r="C460">
-        <v>753350.0768272128</v>
+        <v>753350.0768272131</v>
       </c>
       <c r="D460">
         <v>1470432.00677915</v>
@@ -8194,7 +8194,7 @@
         <v>511531.3422689592</v>
       </c>
       <c r="C461">
-        <v>753350.0768272128</v>
+        <v>753350.0768272131</v>
       </c>
       <c r="D461">
         <v>1470432.00677915</v>
@@ -8208,10 +8208,10 @@
         <v>461</v>
       </c>
       <c r="B462">
-        <v>588261.0436093031</v>
+        <v>588261.043609303</v>
       </c>
       <c r="C462">
-        <v>812825.0828925192</v>
+        <v>812825.0828925193</v>
       </c>
       <c r="D462">
         <v>1390949.195601899</v>
@@ -8231,10 +8231,10 @@
         <v>672444.8185574298</v>
       </c>
       <c r="D463">
-        <v>1430943.57912004</v>
+        <v>1430943.579120041</v>
       </c>
       <c r="E463">
-        <v>2380478.609660227</v>
+        <v>2380478.609660228</v>
       </c>
     </row>
     <row r="464" spans="1:5">
@@ -8248,10 +8248,10 @@
         <v>672444.8185574298</v>
       </c>
       <c r="D464">
-        <v>1430943.57912004</v>
+        <v>1430943.579120041</v>
       </c>
       <c r="E464">
-        <v>2380478.609660227</v>
+        <v>2380478.609660228</v>
       </c>
     </row>
     <row r="465" spans="1:5">
@@ -8259,16 +8259,16 @@
         <v>464</v>
       </c>
       <c r="B465">
-        <v>570638.8582889397</v>
+        <v>570638.8582889398</v>
       </c>
       <c r="C465">
-        <v>837092.8153919687</v>
+        <v>837092.8153919685</v>
       </c>
       <c r="D465">
-        <v>1692026.962790265</v>
+        <v>1692026.962790264</v>
       </c>
       <c r="E465">
-        <v>2253116.46901847</v>
+        <v>2253116.469018469</v>
       </c>
     </row>
     <row r="466" spans="1:5">
@@ -8276,16 +8276,16 @@
         <v>465</v>
       </c>
       <c r="B466">
-        <v>441565.7831997748</v>
+        <v>441565.7831997749</v>
       </c>
       <c r="C466">
-        <v>753383.5338527719</v>
+        <v>753383.5338527716</v>
       </c>
       <c r="D466">
-        <v>1806740.655182825</v>
+        <v>1806740.655182824</v>
       </c>
       <c r="E466">
-        <v>3068073.489727279</v>
+        <v>3068073.489727277</v>
       </c>
     </row>
     <row r="467" spans="1:5">
@@ -8299,10 +8299,10 @@
         <v>672444.8185574298</v>
       </c>
       <c r="D467">
-        <v>1430943.57912004</v>
+        <v>1430943.579120041</v>
       </c>
       <c r="E467">
-        <v>2380478.609660227</v>
+        <v>2380478.609660228</v>
       </c>
     </row>
     <row r="468" spans="1:5">
@@ -8316,10 +8316,10 @@
         <v>333322.7520531935</v>
       </c>
       <c r="D468">
-        <v>785915.4359311565</v>
+        <v>785915.4359311569</v>
       </c>
       <c r="E468">
-        <v>1542749.458162289</v>
+        <v>1542749.45816229</v>
       </c>
     </row>
     <row r="469" spans="1:5">
@@ -8327,16 +8327,16 @@
         <v>468</v>
       </c>
       <c r="B469">
-        <v>283646.4021510146</v>
+        <v>283646.4021510144</v>
       </c>
       <c r="C469">
-        <v>395820.7680631673</v>
+        <v>395820.7680631672</v>
       </c>
       <c r="D469">
-        <v>703187.4953068242</v>
+        <v>703187.4953068246</v>
       </c>
       <c r="E469">
-        <v>964218.4113514309</v>
+        <v>964218.4113514312</v>
       </c>
     </row>
     <row r="470" spans="1:5">
@@ -8344,16 +8344,16 @@
         <v>469</v>
       </c>
       <c r="B470">
-        <v>283646.4021510146</v>
+        <v>283646.4021510144</v>
       </c>
       <c r="C470">
-        <v>395820.7680631673</v>
+        <v>395820.7680631672</v>
       </c>
       <c r="D470">
-        <v>703187.4953068242</v>
+        <v>703187.4953068246</v>
       </c>
       <c r="E470">
-        <v>964218.4113514309</v>
+        <v>964218.4113514312</v>
       </c>
     </row>
     <row r="471" spans="1:5">
@@ -8367,7 +8367,7 @@
         <v>738049.1910996181</v>
       </c>
       <c r="D471">
-        <v>1359396.400164038</v>
+        <v>1359396.400164039</v>
       </c>
       <c r="E471">
         <v>1683753.162930405</v>
@@ -8378,10 +8378,10 @@
         <v>471</v>
       </c>
       <c r="B472">
-        <v>613837.610722751</v>
+        <v>613837.6107227509</v>
       </c>
       <c r="C472">
-        <v>852475.0869360566</v>
+        <v>852475.0869360568</v>
       </c>
       <c r="D472">
         <v>1390949.195601899</v>
@@ -8395,16 +8395,16 @@
         <v>472</v>
       </c>
       <c r="B473">
-        <v>570638.8582889397</v>
+        <v>570638.8582889398</v>
       </c>
       <c r="C473">
-        <v>849051.2841832825</v>
+        <v>849051.2841832823</v>
       </c>
       <c r="D473">
-        <v>1692026.962790265</v>
+        <v>1692026.962790264</v>
       </c>
       <c r="E473">
-        <v>2205177.820741482</v>
+        <v>2205177.820741481</v>
       </c>
     </row>
     <row r="474" spans="1:5">
@@ -8412,16 +8412,16 @@
         <v>473</v>
       </c>
       <c r="B474">
-        <v>570638.8582889397</v>
+        <v>570638.8582889398</v>
       </c>
       <c r="C474">
-        <v>849051.2841832825</v>
+        <v>849051.2841832823</v>
       </c>
       <c r="D474">
-        <v>1692026.962790265</v>
+        <v>1692026.962790264</v>
       </c>
       <c r="E474">
-        <v>2205177.820741482</v>
+        <v>2205177.820741481</v>
       </c>
     </row>
     <row r="475" spans="1:5">
@@ -8435,10 +8435,10 @@
         <v>292873.7510059467</v>
       </c>
       <c r="D475">
-        <v>670113.6977186701</v>
+        <v>670113.6977186709</v>
       </c>
       <c r="E475">
-        <v>906333.6570578102</v>
+        <v>906333.6570578107</v>
       </c>
     </row>
     <row r="476" spans="1:5">
@@ -8449,13 +8449,13 @@
         <v>280180.7212396426</v>
       </c>
       <c r="C476">
-        <v>447367.0437700711</v>
+        <v>447367.0437700712</v>
       </c>
       <c r="D476">
-        <v>920306.3087917882</v>
+        <v>920306.3087917878</v>
       </c>
       <c r="E476">
-        <v>1177641.209790339</v>
+        <v>1177641.209790338</v>
       </c>
     </row>
     <row r="477" spans="1:5">
@@ -8463,16 +8463,16 @@
         <v>476</v>
       </c>
       <c r="B477">
-        <v>274343.6228804834</v>
+        <v>274343.6228804833</v>
       </c>
       <c r="C477">
-        <v>436455.652458606</v>
+        <v>436455.6524586061</v>
       </c>
       <c r="D477">
-        <v>948194.3787551756</v>
+        <v>948194.3787551753</v>
       </c>
       <c r="E477">
-        <v>1224746.858181953</v>
+        <v>1224746.858181952</v>
       </c>
     </row>
     <row r="478" spans="1:5">
@@ -8486,10 +8486,10 @@
         <v>2164894.375742604</v>
       </c>
       <c r="D478">
-        <v>5170383.513530292</v>
+        <v>5170383.51353029</v>
       </c>
       <c r="E478">
-        <v>8913302.490310853</v>
+        <v>8913302.490310857</v>
       </c>
     </row>
     <row r="479" spans="1:5">
@@ -8497,16 +8497,16 @@
         <v>478</v>
       </c>
       <c r="B479">
-        <v>5024707.315991904</v>
+        <v>5024707.315991905</v>
       </c>
       <c r="C479">
-        <v>7046515.7022686</v>
+        <v>7046515.702268597</v>
       </c>
       <c r="D479">
         <v>14730056.11581172</v>
       </c>
       <c r="E479">
-        <v>21340222.19167869</v>
+        <v>21340222.1916787</v>
       </c>
     </row>
     <row r="480" spans="1:5">
@@ -8514,16 +8514,16 @@
         <v>479</v>
       </c>
       <c r="B480">
-        <v>1293396.328287878</v>
+        <v>1293396.328287877</v>
       </c>
       <c r="C480">
-        <v>2225360.792895779</v>
+        <v>2225360.79289578</v>
       </c>
       <c r="D480">
-        <v>5335302.103065458</v>
+        <v>5335302.10306546</v>
       </c>
       <c r="E480">
-        <v>9197195.820219615</v>
+        <v>9197195.820219614</v>
       </c>
     </row>
     <row r="481" spans="1:5">
@@ -8537,10 +8537,10 @@
         <v>2164894.375742604</v>
       </c>
       <c r="D481">
-        <v>5170383.513530292</v>
+        <v>5170383.51353029</v>
       </c>
       <c r="E481">
-        <v>8913302.490310853</v>
+        <v>8913302.490310857</v>
       </c>
     </row>
     <row r="482" spans="1:5">
@@ -8554,10 +8554,10 @@
         <v>2164894.375742604</v>
       </c>
       <c r="D482">
-        <v>5170383.513530292</v>
+        <v>5170383.51353029</v>
       </c>
       <c r="E482">
-        <v>8913302.490310853</v>
+        <v>8913302.490310857</v>
       </c>
     </row>
     <row r="483" spans="1:5">
@@ -8571,10 +8571,10 @@
         <v>2164894.375742604</v>
       </c>
       <c r="D483">
-        <v>5170383.513530292</v>
+        <v>5170383.51353029</v>
       </c>
       <c r="E483">
-        <v>8913302.490310853</v>
+        <v>8913302.490310857</v>
       </c>
     </row>
     <row r="484" spans="1:5">
@@ -8588,10 +8588,10 @@
         <v>2164894.375742604</v>
       </c>
       <c r="D484">
-        <v>5170383.513530292</v>
+        <v>5170383.51353029</v>
       </c>
       <c r="E484">
-        <v>8913302.490310853</v>
+        <v>8913302.490310857</v>
       </c>
     </row>
     <row r="485" spans="1:5">
@@ -8599,16 +8599,16 @@
         <v>484</v>
       </c>
       <c r="B485">
-        <v>1293396.328287878</v>
+        <v>1293396.328287877</v>
       </c>
       <c r="C485">
-        <v>2225360.792895779</v>
+        <v>2225360.79289578</v>
       </c>
       <c r="D485">
-        <v>5335302.103065458</v>
+        <v>5335302.10306546</v>
       </c>
       <c r="E485">
-        <v>9197195.820219615</v>
+        <v>9197195.820219614</v>
       </c>
     </row>
     <row r="486" spans="1:5">
@@ -8616,13 +8616,13 @@
         <v>485</v>
       </c>
       <c r="B486">
-        <v>2337920.28539133</v>
+        <v>2337920.285391329</v>
       </c>
       <c r="C486">
-        <v>4012762.998569668</v>
+        <v>4012762.998569671</v>
       </c>
       <c r="D486">
-        <v>9632633.532746106</v>
+        <v>9632633.532746108</v>
       </c>
       <c r="E486">
         <v>16627201.72429566</v>
@@ -8633,16 +8633,16 @@
         <v>486</v>
       </c>
       <c r="B487">
-        <v>687638.464370483</v>
+        <v>687638.4643704828</v>
       </c>
       <c r="C487">
-        <v>971618.9935508952</v>
+        <v>971618.9935508948</v>
       </c>
       <c r="D487">
         <v>1831921.161503101</v>
       </c>
       <c r="E487">
-        <v>2262769.188632214</v>
+        <v>2262769.188632212</v>
       </c>
     </row>
     <row r="488" spans="1:5">
@@ -8650,13 +8650,13 @@
         <v>487</v>
       </c>
       <c r="B488">
-        <v>157068.3572253215</v>
+        <v>157068.3572253214</v>
       </c>
       <c r="C488">
         <v>269278.1621925198</v>
       </c>
       <c r="D488">
-        <v>700882.6338020444</v>
+        <v>700882.6338020448</v>
       </c>
       <c r="E488">
         <v>1139584.10204287</v>
@@ -8670,13 +8670,13 @@
         <v>188482.0286703857</v>
       </c>
       <c r="C489">
-        <v>304401.4007393702</v>
+        <v>304401.4007393701</v>
       </c>
       <c r="D489">
-        <v>642475.7476518741</v>
+        <v>642475.7476518744</v>
       </c>
       <c r="E489">
-        <v>941395.5625571535</v>
+        <v>941395.5625571532</v>
       </c>
     </row>
     <row r="490" spans="1:5">
@@ -8687,13 +8687,13 @@
         <v>2311432.973225317</v>
       </c>
       <c r="C490">
-        <v>3688164.768623258</v>
+        <v>3688164.768623257</v>
       </c>
       <c r="D490">
-        <v>7450019.616353697</v>
+        <v>7450019.616353698</v>
       </c>
       <c r="E490">
-        <v>10988502.09040169</v>
+        <v>10988502.09040168</v>
       </c>
     </row>
     <row r="491" spans="1:5">
@@ -8704,13 +8704,13 @@
         <v>2654715.097961751</v>
       </c>
       <c r="C491">
-        <v>3822629.109145981</v>
+        <v>3822629.10914598</v>
       </c>
       <c r="D491">
-        <v>7120736.981376737</v>
+        <v>7120736.981376739</v>
       </c>
       <c r="E491">
-        <v>9540914.988672124</v>
+        <v>9540914.988672122</v>
       </c>
     </row>
     <row r="492" spans="1:5">
@@ -8721,13 +8721,13 @@
         <v>2311432.973225317</v>
       </c>
       <c r="C492">
-        <v>3688164.768623258</v>
+        <v>3688164.768623257</v>
       </c>
       <c r="D492">
-        <v>7450019.616353697</v>
+        <v>7450019.616353698</v>
       </c>
       <c r="E492">
-        <v>10988502.09040169</v>
+        <v>10988502.09040168</v>
       </c>
     </row>
     <row r="493" spans="1:5">
@@ -8738,13 +8738,13 @@
         <v>2311432.973225317</v>
       </c>
       <c r="C493">
-        <v>3688164.768623258</v>
+        <v>3688164.768623257</v>
       </c>
       <c r="D493">
-        <v>7450019.616353697</v>
+        <v>7450019.616353698</v>
       </c>
       <c r="E493">
-        <v>10988502.09040169</v>
+        <v>10988502.09040168</v>
       </c>
     </row>
     <row r="494" spans="1:5">
@@ -8755,13 +8755,13 @@
         <v>2311432.973225317</v>
       </c>
       <c r="C494">
-        <v>3688164.768623258</v>
+        <v>3688164.768623257</v>
       </c>
       <c r="D494">
-        <v>7450019.616353697</v>
+        <v>7450019.616353698</v>
       </c>
       <c r="E494">
-        <v>10988502.09040169</v>
+        <v>10988502.09040168</v>
       </c>
     </row>
     <row r="495" spans="1:5">
@@ -8769,16 +8769,16 @@
         <v>494</v>
       </c>
       <c r="B495">
-        <v>357153.8867430463</v>
+        <v>357153.8867430465</v>
       </c>
       <c r="C495">
-        <v>629342.6890118372</v>
+        <v>629342.6890118371</v>
       </c>
       <c r="D495">
         <v>1342659.088369245</v>
       </c>
       <c r="E495">
-        <v>1859033.837453882</v>
+        <v>1859033.837453883</v>
       </c>
     </row>
     <row r="496" spans="1:5">
@@ -8786,13 +8786,13 @@
         <v>495</v>
       </c>
       <c r="B496">
-        <v>2809344.720408252</v>
+        <v>2809344.720408253</v>
       </c>
       <c r="C496">
-        <v>4446990.470513097</v>
+        <v>4446990.470513095</v>
       </c>
       <c r="D496">
-        <v>8628163.21533893</v>
+        <v>8628163.215338934</v>
       </c>
       <c r="E496">
         <v>11785298.08484646</v>
@@ -8803,16 +8803,16 @@
         <v>496</v>
       </c>
       <c r="B497">
-        <v>357153.8867430463</v>
+        <v>357153.8867430465</v>
       </c>
       <c r="C497">
-        <v>629342.6890118372</v>
+        <v>629342.6890118371</v>
       </c>
       <c r="D497">
         <v>1342659.088369245</v>
       </c>
       <c r="E497">
-        <v>1859033.837453882</v>
+        <v>1859033.837453883</v>
       </c>
     </row>
     <row r="498" spans="1:5">
@@ -8820,7 +8820,7 @@
         <v>497</v>
       </c>
       <c r="B498">
-        <v>687213.0491748635</v>
+        <v>687213.0491748634</v>
       </c>
       <c r="C498">
         <v>1217933.200947535</v>
@@ -8829,7 +8829,7 @@
         <v>2433165.079834072</v>
       </c>
       <c r="E498">
-        <v>3499930.799681783</v>
+        <v>3499930.799681784</v>
       </c>
     </row>
     <row r="499" spans="1:5">
@@ -8837,16 +8837,16 @@
         <v>498</v>
       </c>
       <c r="B499">
-        <v>809593.4551923049</v>
+        <v>809593.4551923048</v>
       </c>
       <c r="C499">
         <v>1289576.330415037</v>
       </c>
       <c r="D499">
-        <v>2315431.285648552</v>
+        <v>2315431.285648553</v>
       </c>
       <c r="E499">
-        <v>2749945.628321401</v>
+        <v>2749945.628321402</v>
       </c>
     </row>
     <row r="500" spans="1:5">
@@ -8854,16 +8854,16 @@
         <v>499</v>
       </c>
       <c r="B500">
-        <v>819007.332578262</v>
+        <v>819007.3325782617</v>
       </c>
       <c r="C500">
         <v>1289576.330415037</v>
       </c>
       <c r="D500">
-        <v>2315431.285648552</v>
+        <v>2315431.285648553</v>
       </c>
       <c r="E500">
-        <v>2687446.864041369</v>
+        <v>2687446.86404137</v>
       </c>
     </row>
     <row r="501" spans="1:5">
@@ -8874,13 +8874,13 @@
         <v>249108.4912274661</v>
       </c>
       <c r="C501">
-        <v>465014.211613046</v>
+        <v>465014.2116130461</v>
       </c>
       <c r="D501">
         <v>1198352.391837516</v>
       </c>
       <c r="E501">
-        <v>2208446.610709746</v>
+        <v>2208446.610709745</v>
       </c>
     </row>
   </sheetData>
